--- a/data/pca/factorExposure/factorExposure_2011-05-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-05-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.007071751560123008</v>
+        <v>0.01414046883515766</v>
       </c>
       <c r="C2">
-        <v>-0.007985919008396588</v>
+        <v>0.005321183099827116</v>
       </c>
       <c r="D2">
-        <v>-0.05437747705071681</v>
+        <v>-0.002144466132928153</v>
       </c>
       <c r="E2">
-        <v>-0.001497140842905793</v>
+        <v>0.02957392327688015</v>
       </c>
       <c r="F2">
-        <v>0.002815696080295672</v>
+        <v>0.006095110996581435</v>
       </c>
       <c r="G2">
-        <v>0.03126258262946484</v>
+        <v>0.01052761298622802</v>
       </c>
       <c r="H2">
-        <v>-0.02588547716907304</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.02228130602642267</v>
+      </c>
+      <c r="I2">
+        <v>0.02894546750846343</v>
+      </c>
+      <c r="J2">
+        <v>0.02275785289550864</v>
+      </c>
+      <c r="K2">
+        <v>-0.04092813416892584</v>
+      </c>
+      <c r="L2">
+        <v>0.02798546595387124</v>
+      </c>
+      <c r="M2">
+        <v>0.00707651043250204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.08377130960408473</v>
+        <v>0.1099493465441687</v>
       </c>
       <c r="C4">
-        <v>0.04908529203310812</v>
+        <v>-0.07368305604321129</v>
       </c>
       <c r="D4">
-        <v>-0.02976771346331536</v>
+        <v>-0.005152656369811119</v>
       </c>
       <c r="E4">
-        <v>0.0352911488311055</v>
+        <v>0.0363569756178983</v>
       </c>
       <c r="F4">
-        <v>-0.02548136038119327</v>
+        <v>-0.1576634082662025</v>
       </c>
       <c r="G4">
-        <v>0.02651409004966131</v>
+        <v>-0.003422528449762877</v>
       </c>
       <c r="H4">
-        <v>0.02342002065702906</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.007307827949145942</v>
+      </c>
+      <c r="I4">
+        <v>-0.01526913101020476</v>
+      </c>
+      <c r="J4">
+        <v>-0.0318842239389919</v>
+      </c>
+      <c r="K4">
+        <v>0.08360376794042688</v>
+      </c>
+      <c r="L4">
+        <v>0.03883473966478726</v>
+      </c>
+      <c r="M4">
+        <v>-0.07727219522075844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>-0.1339258635851405</v>
+        <v>0.1348830868270116</v>
       </c>
       <c r="C6">
-        <v>0.03523268170453876</v>
+        <v>-0.05049706864514193</v>
       </c>
       <c r="D6">
-        <v>-0.04685175148262648</v>
+        <v>-0.01060046057546369</v>
       </c>
       <c r="E6">
-        <v>0.06213407235917379</v>
+        <v>-0.01761809362675767</v>
       </c>
       <c r="F6">
-        <v>0.1162798290840861</v>
+        <v>-0.005830232867374152</v>
       </c>
       <c r="G6">
-        <v>-0.1262339162522226</v>
+        <v>-0.1118359047033521</v>
       </c>
       <c r="H6">
-        <v>0.03709161232319546</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.05085312355947035</v>
+      </c>
+      <c r="I6">
+        <v>-0.2671182192863578</v>
+      </c>
+      <c r="J6">
+        <v>-0.3366788857072383</v>
+      </c>
+      <c r="K6">
+        <v>-0.0635308295667278</v>
+      </c>
+      <c r="L6">
+        <v>0.1829965605299134</v>
+      </c>
+      <c r="M6">
+        <v>0.03004565598012995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>-0.0785616412812553</v>
+        <v>0.07011580304054134</v>
       </c>
       <c r="C7">
-        <v>0.04614436431020633</v>
+        <v>-0.06173905363474105</v>
       </c>
       <c r="D7">
-        <v>-0.04325314719283881</v>
+        <v>-0.002896964790212747</v>
       </c>
       <c r="E7">
-        <v>0.04574094816846157</v>
+        <v>0.05430948454969995</v>
       </c>
       <c r="F7">
-        <v>0.03849967751292935</v>
+        <v>-0.03788485557936188</v>
       </c>
       <c r="G7">
-        <v>0.002341300223740688</v>
+        <v>0.001887574230011299</v>
       </c>
       <c r="H7">
-        <v>-0.02581260406344497</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.01907404489819578</v>
+      </c>
+      <c r="I7">
+        <v>-0.00519913991851618</v>
+      </c>
+      <c r="J7">
+        <v>0.05177227278040018</v>
+      </c>
+      <c r="K7">
+        <v>0.1128062698890265</v>
+      </c>
+      <c r="L7">
+        <v>-0.001111482515495764</v>
+      </c>
+      <c r="M7">
+        <v>0.04549682444746782</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>-0.03725351760369998</v>
+        <v>0.04237409252591076</v>
       </c>
       <c r="C8">
-        <v>0.003789360764685199</v>
+        <v>-0.01696140474501845</v>
       </c>
       <c r="D8">
-        <v>-0.05308341221068121</v>
+        <v>-0.01008671050922332</v>
       </c>
       <c r="E8">
-        <v>0.0580160334580384</v>
+        <v>0.007994279459888159</v>
       </c>
       <c r="F8">
-        <v>-0.0275297553841627</v>
+        <v>-0.1441870574963065</v>
       </c>
       <c r="G8">
-        <v>0.07730560807442162</v>
+        <v>0.006234256230719038</v>
       </c>
       <c r="H8">
-        <v>-0.0694255205042124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.05392230450627133</v>
+      </c>
+      <c r="I8">
+        <v>-0.05699330947638509</v>
+      </c>
+      <c r="J8">
+        <v>-0.006427074243422513</v>
+      </c>
+      <c r="K8">
+        <v>0.06541963610513862</v>
+      </c>
+      <c r="L8">
+        <v>0.06886800709993704</v>
+      </c>
+      <c r="M8">
+        <v>-0.05467995765829057</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-0.0779797195855899</v>
+        <v>0.08397922343187596</v>
       </c>
       <c r="C9">
-        <v>0.04966070810644968</v>
+        <v>-0.06309131084380921</v>
       </c>
       <c r="D9">
-        <v>-0.03370148400672599</v>
+        <v>0.01145262752672492</v>
       </c>
       <c r="E9">
-        <v>0.02684933256790224</v>
+        <v>0.02598561484063032</v>
       </c>
       <c r="F9">
-        <v>-0.01264670130127747</v>
+        <v>-0.1404357221061364</v>
       </c>
       <c r="G9">
-        <v>0.03196995678881165</v>
+        <v>-0.007801899700457147</v>
       </c>
       <c r="H9">
-        <v>-0.02207243806218228</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.012994425807426</v>
+      </c>
+      <c r="I9">
+        <v>-0.007662991182747327</v>
+      </c>
+      <c r="J9">
+        <v>-0.002590544918035595</v>
+      </c>
+      <c r="K9">
+        <v>0.05320124052116559</v>
+      </c>
+      <c r="L9">
+        <v>0.04330809237734131</v>
+      </c>
+      <c r="M9">
+        <v>-0.009919141076108817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>-0.04543276090238738</v>
+        <v>0.1086681492879643</v>
       </c>
       <c r="C10">
-        <v>-0.1373842387493502</v>
+        <v>0.1657346887236766</v>
       </c>
       <c r="D10">
-        <v>-0.08084005825998236</v>
+        <v>-0.008469314497170239</v>
       </c>
       <c r="E10">
-        <v>0.0291916625811496</v>
+        <v>0.03489909777229812</v>
       </c>
       <c r="F10">
-        <v>0.04279835560468371</v>
+        <v>0.01170818497512026</v>
       </c>
       <c r="G10">
-        <v>-0.01321593989837508</v>
+        <v>-0.02395844348102583</v>
       </c>
       <c r="H10">
-        <v>0.01281676394162983</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.03145103851481532</v>
+      </c>
+      <c r="I10">
+        <v>0.008977466594736871</v>
+      </c>
+      <c r="J10">
+        <v>-0.01201393381827705</v>
+      </c>
+      <c r="K10">
+        <v>0.000283762411932775</v>
+      </c>
+      <c r="L10">
+        <v>-0.05111879963161607</v>
+      </c>
+      <c r="M10">
+        <v>0.1044767253468127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>-0.06747636541751265</v>
+        <v>0.06935892121893593</v>
       </c>
       <c r="C11">
-        <v>0.06634640563129447</v>
+        <v>-0.06926151530750073</v>
       </c>
       <c r="D11">
-        <v>-0.008789487752043371</v>
+        <v>0.0289664350387887</v>
       </c>
       <c r="E11">
-        <v>-0.009553511426895247</v>
+        <v>0.003670843056324949</v>
       </c>
       <c r="F11">
-        <v>0.002554502532963872</v>
+        <v>-0.117562928830132</v>
       </c>
       <c r="G11">
-        <v>0.1171072584284514</v>
+        <v>0.01011174347229677</v>
       </c>
       <c r="H11">
-        <v>-0.07158656897621633</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.05850914749442045</v>
+      </c>
+      <c r="I11">
+        <v>0.0287159817556677</v>
+      </c>
+      <c r="J11">
+        <v>0.08938243315155134</v>
+      </c>
+      <c r="K11">
+        <v>-0.03183784856603485</v>
+      </c>
+      <c r="L11">
+        <v>0.03054652404354765</v>
+      </c>
+      <c r="M11">
+        <v>0.1066262160786058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>-0.06283142569283846</v>
+        <v>0.06767256001965781</v>
       </c>
       <c r="C12">
-        <v>0.03334575269265237</v>
+        <v>-0.05668193643019114</v>
       </c>
       <c r="D12">
-        <v>0.004968887791125282</v>
+        <v>0.02889370364035157</v>
       </c>
       <c r="E12">
-        <v>0.03498483788193677</v>
+        <v>-0.003519830060727962</v>
       </c>
       <c r="F12">
-        <v>0.01249387231792647</v>
+        <v>-0.1215261113297259</v>
       </c>
       <c r="G12">
-        <v>0.1005767129713653</v>
+        <v>0.02830158598789925</v>
       </c>
       <c r="H12">
-        <v>-0.09123947694189455</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.05235001864623511</v>
+      </c>
+      <c r="I12">
+        <v>0.004302164645083335</v>
+      </c>
+      <c r="J12">
+        <v>0.08887060122100897</v>
+      </c>
+      <c r="K12">
+        <v>-0.01833568504197932</v>
+      </c>
+      <c r="L12">
+        <v>0.05451991566460108</v>
+      </c>
+      <c r="M12">
+        <v>0.1124420450459235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>-0.05520820946419406</v>
+        <v>0.04477302386444096</v>
       </c>
       <c r="C13">
-        <v>0.004271279768587231</v>
+        <v>-0.03122773570168093</v>
       </c>
       <c r="D13">
-        <v>-0.0004193676852364348</v>
+        <v>-0.01839079747591354</v>
       </c>
       <c r="E13">
-        <v>0.01889780436826613</v>
+        <v>0.01383574201900793</v>
       </c>
       <c r="F13">
-        <v>-0.04720314866322809</v>
+        <v>-0.04848686254551338</v>
       </c>
       <c r="G13">
-        <v>0.01031039511260109</v>
+        <v>0.005561372966587766</v>
       </c>
       <c r="H13">
-        <v>-0.08284250136006319</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.01898943106706107</v>
+      </c>
+      <c r="I13">
+        <v>-0.006406781441555417</v>
+      </c>
+      <c r="J13">
+        <v>0.006753054699075626</v>
+      </c>
+      <c r="K13">
+        <v>0.04786610154899015</v>
+      </c>
+      <c r="L13">
+        <v>-0.005838501977382196</v>
+      </c>
+      <c r="M13">
+        <v>-0.03643335027847155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>-0.05425120215505969</v>
+        <v>0.03751936792278412</v>
       </c>
       <c r="C14">
-        <v>0.01361504162265132</v>
+        <v>-0.02162153979082938</v>
       </c>
       <c r="D14">
-        <v>-0.01560031370093648</v>
+        <v>0.01424028788838928</v>
       </c>
       <c r="E14">
-        <v>0.03271137669985449</v>
+        <v>-0.000252286249777399</v>
       </c>
       <c r="F14">
-        <v>0.005136065293763438</v>
+        <v>-0.07107519487698952</v>
       </c>
       <c r="G14">
-        <v>-0.004227737531576801</v>
+        <v>0.01644688742472183</v>
       </c>
       <c r="H14">
-        <v>-0.03716834310693128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.02380950911493284</v>
+      </c>
+      <c r="I14">
+        <v>0.00439107244910353</v>
+      </c>
+      <c r="J14">
+        <v>-0.03495436338580088</v>
+      </c>
+      <c r="K14">
+        <v>0.09094236560936055</v>
+      </c>
+      <c r="L14">
+        <v>0.04447842701841719</v>
+      </c>
+      <c r="M14">
+        <v>-0.0278002724603851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>-0.03898707771390028</v>
+        <v>0.02543214427945765</v>
       </c>
       <c r="C15">
-        <v>-0.009121758239339622</v>
+        <v>-0.01319822066239266</v>
       </c>
       <c r="D15">
-        <v>-0.0004801064018467708</v>
+        <v>-0.05168803394056982</v>
       </c>
       <c r="E15">
-        <v>0.02400800050730184</v>
+        <v>0.0135533038332602</v>
       </c>
       <c r="F15">
-        <v>-0.01946049869843726</v>
+        <v>-0.01021907048629265</v>
       </c>
       <c r="G15">
-        <v>-0.009372246351926027</v>
+        <v>-0.03129623462110569</v>
       </c>
       <c r="H15">
-        <v>0.01215709978750817</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.00355842527071884</v>
+      </c>
+      <c r="I15">
+        <v>0.007920982318571227</v>
+      </c>
+      <c r="J15">
+        <v>-0.04937852893755398</v>
+      </c>
+      <c r="K15">
+        <v>0.07266124314339167</v>
+      </c>
+      <c r="L15">
+        <v>-0.004206867961364972</v>
+      </c>
+      <c r="M15">
+        <v>-0.005481330098404501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>-0.06930156319631382</v>
+        <v>0.07287156493823455</v>
       </c>
       <c r="C16">
-        <v>0.07450942695279199</v>
+        <v>-0.07258942578908184</v>
       </c>
       <c r="D16">
-        <v>-0.01738704493468129</v>
+        <v>0.02410723877215314</v>
       </c>
       <c r="E16">
-        <v>0.02869240588044723</v>
+        <v>0.01448603722987466</v>
       </c>
       <c r="F16">
-        <v>-0.02903520291624396</v>
+        <v>-0.1102316261140915</v>
       </c>
       <c r="G16">
-        <v>0.07879304473048854</v>
+        <v>0.02706768199047122</v>
       </c>
       <c r="H16">
-        <v>-0.07477776261022345</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.04928661969990356</v>
+      </c>
+      <c r="I16">
+        <v>0.02577235385436653</v>
+      </c>
+      <c r="J16">
+        <v>0.0950035434812575</v>
+      </c>
+      <c r="K16">
+        <v>-0.004846073213556853</v>
+      </c>
+      <c r="L16">
+        <v>0.05296262938555376</v>
+      </c>
+      <c r="M16">
+        <v>0.1065719864155609</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>-0.04693145459837231</v>
+        <v>0.04432832127008102</v>
       </c>
       <c r="C20">
-        <v>0.037686978288718</v>
+        <v>-0.03313097312575394</v>
       </c>
       <c r="D20">
-        <v>-0.00884585924635831</v>
+        <v>-0.01844924237903932</v>
       </c>
       <c r="E20">
-        <v>0.0107542438367926</v>
+        <v>0.01931079434183039</v>
       </c>
       <c r="F20">
-        <v>-0.01181211533493103</v>
+        <v>-0.07191927236829852</v>
       </c>
       <c r="G20">
-        <v>0.02972547650781357</v>
+        <v>0.02795082636315781</v>
       </c>
       <c r="H20">
-        <v>-0.05325791960576792</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.004960578490967882</v>
+      </c>
+      <c r="I20">
+        <v>-0.02537117792205166</v>
+      </c>
+      <c r="J20">
+        <v>-0.003008021416840882</v>
+      </c>
+      <c r="K20">
+        <v>0.06441134519943453</v>
+      </c>
+      <c r="L20">
+        <v>0.02551188749656629</v>
+      </c>
+      <c r="M20">
+        <v>0.005427757062136512</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>-0.02675453411766262</v>
+        <v>0.0233415731250716</v>
       </c>
       <c r="C21">
-        <v>0.03825512980305287</v>
+        <v>-0.02566078287045123</v>
       </c>
       <c r="D21">
-        <v>0.003423625681460863</v>
+        <v>-0.005687033013384257</v>
       </c>
       <c r="E21">
-        <v>0.05190738484052557</v>
+        <v>0.008216963435952764</v>
       </c>
       <c r="F21">
-        <v>0.08080807923292892</v>
+        <v>-0.07275915395594883</v>
       </c>
       <c r="G21">
-        <v>-0.02337122870324248</v>
+        <v>-0.03862174947610434</v>
       </c>
       <c r="H21">
-        <v>0.107290838961392</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.1035040366361497</v>
+      </c>
+      <c r="I21">
+        <v>-0.0633987679789592</v>
+      </c>
+      <c r="J21">
+        <v>-0.0296807951323599</v>
+      </c>
+      <c r="K21">
+        <v>0.1253501708880333</v>
+      </c>
+      <c r="L21">
+        <v>-0.05576798227840897</v>
+      </c>
+      <c r="M21">
+        <v>0.04596720385203629</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>-0.02532856716168235</v>
+        <v>0.04766238608470976</v>
       </c>
       <c r="C22">
-        <v>0.03617619950559727</v>
+        <v>-0.02587442227719491</v>
       </c>
       <c r="D22">
-        <v>0.048012585757026</v>
+        <v>-0.6348911285095421</v>
       </c>
       <c r="E22">
-        <v>0.5307113797157672</v>
+        <v>0.1578382233862924</v>
       </c>
       <c r="F22">
-        <v>-0.2375987860619778</v>
+        <v>0.07295607885613269</v>
       </c>
       <c r="G22">
-        <v>-0.1284475457508325</v>
+        <v>0.155704852608065</v>
       </c>
       <c r="H22">
-        <v>0.2655257515993624</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.06245179893245429</v>
+      </c>
+      <c r="I22">
+        <v>-0.02533884912078951</v>
+      </c>
+      <c r="J22">
+        <v>0.01789426319048805</v>
+      </c>
+      <c r="K22">
+        <v>-0.04683482026584822</v>
+      </c>
+      <c r="L22">
+        <v>-0.01912240806569269</v>
+      </c>
+      <c r="M22">
+        <v>0.001039178959247016</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>-0.02549725698031201</v>
+        <v>0.04812601745898614</v>
       </c>
       <c r="C23">
-        <v>0.03596874277040857</v>
+        <v>-0.02654067388225398</v>
       </c>
       <c r="D23">
-        <v>0.04670450007502216</v>
+        <v>-0.6365297838815259</v>
       </c>
       <c r="E23">
-        <v>0.530090968384999</v>
+        <v>0.1581734033222058</v>
       </c>
       <c r="F23">
-        <v>-0.2377175973674774</v>
+        <v>0.07027242728720819</v>
       </c>
       <c r="G23">
-        <v>-0.1297755740947948</v>
+        <v>0.156212989168048</v>
       </c>
       <c r="H23">
-        <v>0.2652747421841307</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.05964363666988483</v>
+      </c>
+      <c r="I23">
+        <v>-0.0267591333405191</v>
+      </c>
+      <c r="J23">
+        <v>0.01620963126922862</v>
+      </c>
+      <c r="K23">
+        <v>-0.04962931265035633</v>
+      </c>
+      <c r="L23">
+        <v>-0.01685851793328335</v>
+      </c>
+      <c r="M23">
+        <v>0.002516034669696361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>-0.07641270139810835</v>
+        <v>0.07549247223625562</v>
       </c>
       <c r="C24">
-        <v>0.05475619307803583</v>
+        <v>-0.06613336554760858</v>
       </c>
       <c r="D24">
-        <v>-0.01494925480603072</v>
+        <v>0.02202801313185999</v>
       </c>
       <c r="E24">
-        <v>0.03484670414533526</v>
+        <v>0.02523823092932902</v>
       </c>
       <c r="F24">
-        <v>-0.005204858419731392</v>
+        <v>-0.1063089283822632</v>
       </c>
       <c r="G24">
-        <v>0.08715513363116886</v>
+        <v>0.0237630658883396</v>
       </c>
       <c r="H24">
-        <v>-0.06793394557094046</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.06744439009021026</v>
+      </c>
+      <c r="I24">
+        <v>0.02916430007404425</v>
+      </c>
+      <c r="J24">
+        <v>0.0854226103471441</v>
+      </c>
+      <c r="K24">
+        <v>-0.03435475027262363</v>
+      </c>
+      <c r="L24">
+        <v>0.05423085397732546</v>
+      </c>
+      <c r="M24">
+        <v>0.08278055721248397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>-0.06629469506037754</v>
+        <v>0.07503913934664037</v>
       </c>
       <c r="C25">
-        <v>0.02911730308259395</v>
+        <v>-0.04798231977560533</v>
       </c>
       <c r="D25">
-        <v>-0.01656200989257366</v>
+        <v>0.03616045246710876</v>
       </c>
       <c r="E25">
-        <v>0.02559998920029382</v>
+        <v>0.008993085027472373</v>
       </c>
       <c r="F25">
-        <v>0.001287217756140432</v>
+        <v>-0.1130367482697745</v>
       </c>
       <c r="G25">
-        <v>0.08570682826543499</v>
+        <v>0.02315131517815587</v>
       </c>
       <c r="H25">
-        <v>-0.07056358536314312</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.04602431195110353</v>
+      </c>
+      <c r="I25">
+        <v>0.02896086339875908</v>
+      </c>
+      <c r="J25">
+        <v>0.08411093981859444</v>
+      </c>
+      <c r="K25">
+        <v>-0.03365118987859311</v>
+      </c>
+      <c r="L25">
+        <v>0.06118468350931051</v>
+      </c>
+      <c r="M25">
+        <v>0.1014601577833929</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>-0.05000746554014512</v>
+        <v>0.04196807643804683</v>
       </c>
       <c r="C26">
-        <v>0.03618888779850535</v>
+        <v>-0.01532473628134367</v>
       </c>
       <c r="D26">
-        <v>-0.03136435283721301</v>
+        <v>-0.008304428131168558</v>
       </c>
       <c r="E26">
-        <v>0.004474758509302432</v>
+        <v>0.006782384366569802</v>
       </c>
       <c r="F26">
-        <v>-0.02230483684478341</v>
+        <v>-0.04764210608837139</v>
       </c>
       <c r="G26">
-        <v>-0.007309101645282826</v>
+        <v>0.02613600328640234</v>
       </c>
       <c r="H26">
-        <v>-0.03930431768140906</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.01635732130372591</v>
+      </c>
+      <c r="I26">
+        <v>0.003393487012795255</v>
+      </c>
+      <c r="J26">
+        <v>-0.04234133098224235</v>
+      </c>
+      <c r="K26">
+        <v>0.1192999156606904</v>
+      </c>
+      <c r="L26">
+        <v>-0.02221656422835779</v>
+      </c>
+      <c r="M26">
+        <v>0.02390997089668676</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>-0.08833208995308861</v>
+        <v>0.1400492850399007</v>
       </c>
       <c r="C28">
-        <v>-0.2907954969572425</v>
+        <v>0.288266513805367</v>
       </c>
       <c r="D28">
-        <v>-0.07358265326236499</v>
+        <v>0.007950928161413824</v>
       </c>
       <c r="E28">
-        <v>0.002123565170823711</v>
+        <v>0.01406813024157402</v>
       </c>
       <c r="F28">
-        <v>0.03999187335718404</v>
+        <v>-0.007361357235905455</v>
       </c>
       <c r="G28">
-        <v>0.002423044576694676</v>
+        <v>-0.004739467257137911</v>
       </c>
       <c r="H28">
-        <v>0.05036954859998814</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.008928767192112708</v>
+      </c>
+      <c r="I28">
+        <v>-0.02447513214166943</v>
+      </c>
+      <c r="J28">
+        <v>0.01136696661731984</v>
+      </c>
+      <c r="K28">
+        <v>0.0143434537331165</v>
+      </c>
+      <c r="L28">
+        <v>-0.02027551758144913</v>
+      </c>
+      <c r="M28">
+        <v>-0.01328164287941513</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>-0.05361137306734748</v>
+        <v>0.03860322354942021</v>
       </c>
       <c r="C29">
-        <v>0.007217044651399305</v>
+        <v>-0.02229693633485794</v>
       </c>
       <c r="D29">
-        <v>-0.006946500174941754</v>
+        <v>0.00830760487024001</v>
       </c>
       <c r="E29">
-        <v>0.03731031417905195</v>
+        <v>0.006204044749730987</v>
       </c>
       <c r="F29">
-        <v>-0.02596506750427061</v>
+        <v>-0.0691416453306774</v>
       </c>
       <c r="G29">
-        <v>-0.002129486902381364</v>
+        <v>0.03542119960697808</v>
       </c>
       <c r="H29">
-        <v>0.004689624688822485</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.004154710711497347</v>
+      </c>
+      <c r="I29">
+        <v>-0.009472107317563285</v>
+      </c>
+      <c r="J29">
+        <v>-0.03093157574923718</v>
+      </c>
+      <c r="K29">
+        <v>0.09249459285850573</v>
+      </c>
+      <c r="L29">
+        <v>0.03187746950297419</v>
+      </c>
+      <c r="M29">
+        <v>-0.007739312265760862</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>-0.122198938159204</v>
+        <v>0.10461602536305</v>
       </c>
       <c r="C30">
-        <v>0.03183046449350705</v>
+        <v>-0.05336426546475039</v>
       </c>
       <c r="D30">
-        <v>-0.04974168467750033</v>
+        <v>0.002363074127672267</v>
       </c>
       <c r="E30">
-        <v>0.09945557089547342</v>
+        <v>-0.01263097751130686</v>
       </c>
       <c r="F30">
-        <v>0.05849410788588243</v>
+        <v>-0.2013810464191881</v>
       </c>
       <c r="G30">
-        <v>0.1773885329875837</v>
+        <v>0.2051569894963629</v>
       </c>
       <c r="H30">
-        <v>-0.01609167530394771</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.1308112483610563</v>
+      </c>
+      <c r="I30">
+        <v>-0.2166250415388854</v>
+      </c>
+      <c r="J30">
+        <v>0.03686993787921643</v>
+      </c>
+      <c r="K30">
+        <v>0.002693124285199244</v>
+      </c>
+      <c r="L30">
+        <v>0.09962018085202462</v>
+      </c>
+      <c r="M30">
+        <v>-0.5621582527899255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>-0.05147366199560462</v>
+        <v>0.03791764281622428</v>
       </c>
       <c r="C31">
-        <v>0.01959146616414083</v>
+        <v>-0.04628707946519305</v>
       </c>
       <c r="D31">
-        <v>0.01161471903999253</v>
+        <v>-0.001301039296334936</v>
       </c>
       <c r="E31">
-        <v>0.002348585275116346</v>
+        <v>0.00152347877897882</v>
       </c>
       <c r="F31">
-        <v>-0.02355160272305788</v>
+        <v>-0.02483437699100535</v>
       </c>
       <c r="G31">
-        <v>-0.03178535656152708</v>
+        <v>0.01061627495442642</v>
       </c>
       <c r="H31">
-        <v>-0.03400195018149269</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.03373922939687725</v>
+      </c>
+      <c r="I31">
+        <v>0.02155895188901684</v>
+      </c>
+      <c r="J31">
+        <v>-0.002047437141668789</v>
+      </c>
+      <c r="K31">
+        <v>0.02703841491303834</v>
+      </c>
+      <c r="L31">
+        <v>0.04171553643290768</v>
+      </c>
+      <c r="M31">
+        <v>-0.0003310414543059294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>-0.02359885899889662</v>
+        <v>0.0438471303340344</v>
       </c>
       <c r="C32">
-        <v>-0.009524337448559099</v>
+        <v>-0.001068428887165443</v>
       </c>
       <c r="D32">
-        <v>-0.003554542532946729</v>
+        <v>0.01201447755674177</v>
       </c>
       <c r="E32">
-        <v>0.0732676288897377</v>
+        <v>-0.02867725746417731</v>
       </c>
       <c r="F32">
-        <v>-0.09488913238626337</v>
+        <v>-0.08188405857865749</v>
       </c>
       <c r="G32">
-        <v>0.05322612647385998</v>
+        <v>-0.00511126207066174</v>
       </c>
       <c r="H32">
-        <v>-0.03114537209099387</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.0003930715492812753</v>
+      </c>
+      <c r="I32">
+        <v>0.05686480018370853</v>
+      </c>
+      <c r="J32">
+        <v>0.0136515941841587</v>
+      </c>
+      <c r="K32">
+        <v>0.05723964165789801</v>
+      </c>
+      <c r="L32">
+        <v>0.01624068769076089</v>
+      </c>
+      <c r="M32">
+        <v>-0.1304007261114995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>-0.1165084833339311</v>
+        <v>0.09547254046622018</v>
       </c>
       <c r="C33">
-        <v>0.03396486420784939</v>
+        <v>-0.05704646430447828</v>
       </c>
       <c r="D33">
-        <v>-0.004145655601080777</v>
+        <v>0.02103658216759571</v>
       </c>
       <c r="E33">
-        <v>0.01869667849333143</v>
+        <v>0.001973809077746269</v>
       </c>
       <c r="F33">
-        <v>-0.05766542718132997</v>
+        <v>-0.07782009507675533</v>
       </c>
       <c r="G33">
-        <v>0.03216933889228047</v>
+        <v>0.02466518921029671</v>
       </c>
       <c r="H33">
-        <v>-0.0543260342422777</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.005081842638541735</v>
+      </c>
+      <c r="I33">
+        <v>0.0135546033441646</v>
+      </c>
+      <c r="J33">
+        <v>-0.015334792693578</v>
+      </c>
+      <c r="K33">
+        <v>0.0197275623579854</v>
+      </c>
+      <c r="L33">
+        <v>0.02415385944514549</v>
+      </c>
+      <c r="M33">
+        <v>-0.01838014272758919</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>-0.05348239965805672</v>
+        <v>0.06225263257115568</v>
       </c>
       <c r="C34">
-        <v>0.0589372475695301</v>
+        <v>-0.05788708722171847</v>
       </c>
       <c r="D34">
-        <v>-0.001878946140609997</v>
+        <v>0.02708227124319324</v>
       </c>
       <c r="E34">
-        <v>0.01252619162982142</v>
+        <v>0.006952056358134211</v>
       </c>
       <c r="F34">
-        <v>-0.005354075282874723</v>
+        <v>-0.1043897819600094</v>
       </c>
       <c r="G34">
-        <v>0.06491865688809736</v>
+        <v>0.01696848850034017</v>
       </c>
       <c r="H34">
-        <v>-0.05342877266595046</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.03639762633817042</v>
+      </c>
+      <c r="I34">
+        <v>0.02123587765237474</v>
+      </c>
+      <c r="J34">
+        <v>0.0860958276621496</v>
+      </c>
+      <c r="K34">
+        <v>0.02356533222073523</v>
+      </c>
+      <c r="L34">
+        <v>0.05138872726905607</v>
+      </c>
+      <c r="M34">
+        <v>0.09815552224524116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>-0.0438376152662201</v>
+        <v>0.02353921913775564</v>
       </c>
       <c r="C35">
-        <v>0.03011696361617552</v>
+        <v>-0.02218629246630379</v>
       </c>
       <c r="D35">
-        <v>0.007889585790981859</v>
+        <v>0.003173500116778397</v>
       </c>
       <c r="E35">
-        <v>0.01359536872422103</v>
+        <v>-0.00581460631744635</v>
       </c>
       <c r="F35">
-        <v>0.01729774614655709</v>
+        <v>-0.03391278460768017</v>
       </c>
       <c r="G35">
-        <v>0.01167232259776174</v>
+        <v>0.02579508591752402</v>
       </c>
       <c r="H35">
-        <v>-0.05557043599251393</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.0189573853494528</v>
+      </c>
+      <c r="I35">
+        <v>-0.008407888408026854</v>
+      </c>
+      <c r="J35">
+        <v>0.04108513862561072</v>
+      </c>
+      <c r="K35">
+        <v>0.0769788218058003</v>
+      </c>
+      <c r="L35">
+        <v>0.0272572582918309</v>
+      </c>
+      <c r="M35">
+        <v>0.0008775809121563691</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>-0.03297368651391176</v>
+        <v>0.02625348420481356</v>
       </c>
       <c r="C36">
-        <v>0.0145755259075249</v>
+        <v>-0.01342861055202011</v>
       </c>
       <c r="D36">
-        <v>-0.02230011931385157</v>
+        <v>-0.009378985652803144</v>
       </c>
       <c r="E36">
-        <v>0.02967521650497513</v>
+        <v>0.01316297133366945</v>
       </c>
       <c r="F36">
-        <v>-0.01897978293608228</v>
+        <v>-0.06299243991466726</v>
       </c>
       <c r="G36">
-        <v>0.0143398590495133</v>
+        <v>0.02124331358319436</v>
       </c>
       <c r="H36">
-        <v>-0.06273800470100674</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.01297058674134687</v>
+      </c>
+      <c r="I36">
+        <v>-0.009620337929276346</v>
+      </c>
+      <c r="J36">
+        <v>-0.03428068288192077</v>
+      </c>
+      <c r="K36">
+        <v>0.03271742264862412</v>
+      </c>
+      <c r="L36">
+        <v>0.02662013070988202</v>
+      </c>
+      <c r="M36">
+        <v>0.03798308600677011</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>-0.04810038642547023</v>
+        <v>0.02787359251916689</v>
       </c>
       <c r="C38">
-        <v>0.03599113759780422</v>
+        <v>-0.04275975792582681</v>
       </c>
       <c r="D38">
-        <v>-0.002288399245118351</v>
+        <v>-0.0159817243192041</v>
       </c>
       <c r="E38">
-        <v>0.02364541851902524</v>
+        <v>0.01775426036298929</v>
       </c>
       <c r="F38">
-        <v>-0.03174604712732047</v>
+        <v>0.05128441479128557</v>
       </c>
       <c r="G38">
-        <v>0.0358486990047988</v>
+        <v>0.04613733601996559</v>
       </c>
       <c r="H38">
-        <v>0.03053096289449491</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.0165415935787877</v>
+      </c>
+      <c r="I38">
+        <v>0.002749864807582014</v>
+      </c>
+      <c r="J38">
+        <v>-0.007324592757799142</v>
+      </c>
+      <c r="K38">
+        <v>0.05361191831466917</v>
+      </c>
+      <c r="L38">
+        <v>-0.08158420383481847</v>
+      </c>
+      <c r="M38">
+        <v>-0.1119174110000384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>-0.1031971509629171</v>
+        <v>0.1055913198087694</v>
       </c>
       <c r="C39">
-        <v>0.07251736313973081</v>
+        <v>-0.08681498806227286</v>
       </c>
       <c r="D39">
-        <v>0.003201961027258504</v>
+        <v>0.08872342134824159</v>
       </c>
       <c r="E39">
-        <v>0.02397074882485961</v>
+        <v>-0.02468372041278375</v>
       </c>
       <c r="F39">
-        <v>-0.003102702172731383</v>
+        <v>-0.1435223423880548</v>
       </c>
       <c r="G39">
-        <v>0.1235448557693936</v>
+        <v>0.1222969364312269</v>
       </c>
       <c r="H39">
-        <v>-0.04728682733026398</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.06118710758566082</v>
+      </c>
+      <c r="I39">
+        <v>-0.01645538822431228</v>
+      </c>
+      <c r="J39">
+        <v>0.2123297711919225</v>
+      </c>
+      <c r="K39">
+        <v>-0.06897157387261109</v>
+      </c>
+      <c r="L39">
+        <v>0.07432265478602075</v>
+      </c>
+      <c r="M39">
+        <v>0.01348796112734965</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>-0.04739644860442314</v>
+        <v>0.03283028550580881</v>
       </c>
       <c r="C40">
-        <v>0.02861265395437365</v>
+        <v>-0.056914507428274</v>
       </c>
       <c r="D40">
-        <v>0.0429610153436031</v>
+        <v>-0.03861999044184632</v>
       </c>
       <c r="E40">
-        <v>0.108507851188072</v>
+        <v>0.0126739184557269</v>
       </c>
       <c r="F40">
-        <v>-0.0264232456479125</v>
+        <v>-0.100514607620615</v>
       </c>
       <c r="G40">
-        <v>0.1495512443997968</v>
+        <v>0.0005531221635260537</v>
       </c>
       <c r="H40">
-        <v>-0.1475875839909359</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.09899559454083434</v>
+      </c>
+      <c r="I40">
+        <v>-0.00657667135106622</v>
+      </c>
+      <c r="J40">
+        <v>-0.02678006387452538</v>
+      </c>
+      <c r="K40">
+        <v>0.04717110150363373</v>
+      </c>
+      <c r="L40">
+        <v>-0.094992399744837</v>
+      </c>
+      <c r="M40">
+        <v>-0.09801940807417985</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>-0.04367324605341207</v>
+        <v>0.03964705991155507</v>
       </c>
       <c r="C41">
-        <v>0.03962949591983045</v>
+        <v>-0.03463919869524227</v>
       </c>
       <c r="D41">
-        <v>0.000680668970521392</v>
+        <v>0.01737344516154026</v>
       </c>
       <c r="E41">
-        <v>-0.008361251064074877</v>
+        <v>-0.002789530242073289</v>
       </c>
       <c r="F41">
-        <v>-0.01615229504776189</v>
+        <v>-0.02123198535868293</v>
       </c>
       <c r="G41">
-        <v>0.02917471919323191</v>
+        <v>0.02943704489351949</v>
       </c>
       <c r="H41">
-        <v>-0.0218136155069158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.001565017737079661</v>
+      </c>
+      <c r="I41">
+        <v>0.006546178922393223</v>
+      </c>
+      <c r="J41">
+        <v>0.02455268548133342</v>
+      </c>
+      <c r="K41">
+        <v>0.05657474855677238</v>
+      </c>
+      <c r="L41">
+        <v>-0.003905273580201392</v>
+      </c>
+      <c r="M41">
+        <v>-9.592710167028638e-05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>-0.06249556397273943</v>
+        <v>0.05142183978996327</v>
       </c>
       <c r="C43">
-        <v>0.03339720943459944</v>
+        <v>-0.03752209780232715</v>
       </c>
       <c r="D43">
-        <v>-0.01891391609956922</v>
+        <v>-0.0094494547387571</v>
       </c>
       <c r="E43">
-        <v>0.0271223607640969</v>
+        <v>0.01324886006540939</v>
       </c>
       <c r="F43">
-        <v>-0.01771697497725743</v>
+        <v>-0.01180625082950692</v>
       </c>
       <c r="G43">
-        <v>0.006259506713107186</v>
+        <v>0.05397402206576567</v>
       </c>
       <c r="H43">
-        <v>0.006270157693024187</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.02491202861671255</v>
+      </c>
+      <c r="I43">
+        <v>-0.01943222279603079</v>
+      </c>
+      <c r="J43">
+        <v>0.04219274401647791</v>
+      </c>
+      <c r="K43">
+        <v>0.04156356689725495</v>
+      </c>
+      <c r="L43">
+        <v>0.02088366626950415</v>
+      </c>
+      <c r="M43">
+        <v>0.01347423468320636</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>-0.05336619598721973</v>
+        <v>0.08657617508818655</v>
       </c>
       <c r="C44">
-        <v>0.02285880631408085</v>
+        <v>-0.06361379061410165</v>
       </c>
       <c r="D44">
-        <v>-0.08268312976577989</v>
+        <v>-0.06408350250987893</v>
       </c>
       <c r="E44">
-        <v>0.06589463471140518</v>
+        <v>0.08241636248885653</v>
       </c>
       <c r="F44">
-        <v>-0.003035525200331156</v>
+        <v>-0.1687044395816265</v>
       </c>
       <c r="G44">
-        <v>0.1131016868865698</v>
+        <v>0.03958371900818951</v>
       </c>
       <c r="H44">
-        <v>-0.05603411003375271</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.05433398458436148</v>
+      </c>
+      <c r="I44">
+        <v>0.02870464382883919</v>
+      </c>
+      <c r="J44">
+        <v>0.009156806662960064</v>
+      </c>
+      <c r="K44">
+        <v>0.05279879157832291</v>
+      </c>
+      <c r="L44">
+        <v>-0.05433650937836337</v>
+      </c>
+      <c r="M44">
+        <v>-0.02788273717384747</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>-0.04027582235282046</v>
+        <v>0.03053540060873532</v>
       </c>
       <c r="C46">
-        <v>0.04608040121737714</v>
+        <v>-0.0255693951528955</v>
       </c>
       <c r="D46">
-        <v>-0.01554431784072574</v>
+        <v>-0.02643963088570166</v>
       </c>
       <c r="E46">
-        <v>0.05364879613765976</v>
+        <v>0.03962900403443522</v>
       </c>
       <c r="F46">
-        <v>-0.02456924327485566</v>
+        <v>-0.0395141218259743</v>
       </c>
       <c r="G46">
-        <v>0.01158420307019044</v>
+        <v>0.04057075735843249</v>
       </c>
       <c r="H46">
-        <v>-0.01225122668793242</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.04463420092947132</v>
+      </c>
+      <c r="I46">
+        <v>0.03146455195151384</v>
+      </c>
+      <c r="J46">
+        <v>-0.03292388821122195</v>
+      </c>
+      <c r="K46">
+        <v>0.1133215932182035</v>
+      </c>
+      <c r="L46">
+        <v>0.06604372124863125</v>
+      </c>
+      <c r="M46">
+        <v>-0.0199815859140862</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>-0.03494592422323881</v>
+        <v>0.04233337402318743</v>
       </c>
       <c r="C47">
-        <v>0.01528951822002744</v>
+        <v>-0.02672617198392715</v>
       </c>
       <c r="D47">
-        <v>-0.005033069362276359</v>
+        <v>-0.01650509628521602</v>
       </c>
       <c r="E47">
-        <v>0.06331359918683335</v>
+        <v>0.0128950273784812</v>
       </c>
       <c r="F47">
-        <v>-0.02035577224873632</v>
+        <v>-0.037939828539369</v>
       </c>
       <c r="G47">
-        <v>-0.01332700342206177</v>
+        <v>0.006811310367381692</v>
       </c>
       <c r="H47">
-        <v>-0.02559274602230556</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.01442924018297937</v>
+      </c>
+      <c r="I47">
+        <v>-0.02048868635566418</v>
+      </c>
+      <c r="J47">
+        <v>-0.02537899640331671</v>
+      </c>
+      <c r="K47">
+        <v>0.0509794287781528</v>
+      </c>
+      <c r="L47">
+        <v>-0.00637683918331514</v>
+      </c>
+      <c r="M47">
+        <v>0.05401061613331434</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>-0.04049995751123506</v>
+        <v>0.04225281211093963</v>
       </c>
       <c r="C48">
-        <v>0.01838510252641323</v>
+        <v>-0.01781668894186157</v>
       </c>
       <c r="D48">
-        <v>0.005347621756198071</v>
+        <v>-0.006556143409637803</v>
       </c>
       <c r="E48">
-        <v>0.05382302777032739</v>
+        <v>0.008387610730979817</v>
       </c>
       <c r="F48">
-        <v>-0.03449202162837496</v>
+        <v>-0.06697266135998266</v>
       </c>
       <c r="G48">
-        <v>-0.003421899221003029</v>
+        <v>-0.002548554066503784</v>
       </c>
       <c r="H48">
-        <v>-0.05001854936046116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.04219702812591686</v>
+      </c>
+      <c r="I48">
+        <v>-0.01075121358363125</v>
+      </c>
+      <c r="J48">
+        <v>-0.008477325733058422</v>
+      </c>
+      <c r="K48">
+        <v>0.046172909093184</v>
+      </c>
+      <c r="L48">
+        <v>0.05225396522714083</v>
+      </c>
+      <c r="M48">
+        <v>0.03152790343277875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>-0.2311153526382748</v>
+        <v>0.2259498971288884</v>
       </c>
       <c r="C49">
-        <v>0.1131466915233021</v>
+        <v>-0.06819254685270501</v>
       </c>
       <c r="D49">
-        <v>-0.03864151437212292</v>
+        <v>0.06517323470915196</v>
       </c>
       <c r="E49">
-        <v>-0.02748244369318477</v>
+        <v>0.06610874790802383</v>
       </c>
       <c r="F49">
-        <v>0.1720851086899565</v>
+        <v>0.2365873626878915</v>
       </c>
       <c r="G49">
-        <v>0.006209905665419705</v>
+        <v>-0.08969905928871696</v>
       </c>
       <c r="H49">
-        <v>0.1454065626435687</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.1909069795529104</v>
+      </c>
+      <c r="I49">
+        <v>0.02069537470343654</v>
+      </c>
+      <c r="J49">
+        <v>0.09452555709380071</v>
+      </c>
+      <c r="K49">
+        <v>-0.1566596531655935</v>
+      </c>
+      <c r="L49">
+        <v>-0.01315238970016855</v>
+      </c>
+      <c r="M49">
+        <v>0.02324178878022777</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>-0.0572926694358691</v>
+        <v>0.0452056560469072</v>
       </c>
       <c r="C50">
-        <v>0.02553304693005491</v>
+        <v>-0.03289912815554615</v>
       </c>
       <c r="D50">
-        <v>0.007999024925248687</v>
+        <v>0.0007676679056554563</v>
       </c>
       <c r="E50">
-        <v>0.0251481260984573</v>
+        <v>-0.00535865877704093</v>
       </c>
       <c r="F50">
-        <v>-0.05638058276654222</v>
+        <v>-0.0426900380486798</v>
       </c>
       <c r="G50">
-        <v>-0.03701691635246893</v>
+        <v>0.03702851970508498</v>
       </c>
       <c r="H50">
-        <v>-0.03070511165419008</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.02388596519619348</v>
+      </c>
+      <c r="I50">
+        <v>0.01044510500203897</v>
+      </c>
+      <c r="J50">
+        <v>-0.02679513316161061</v>
+      </c>
+      <c r="K50">
+        <v>0.03796592161010764</v>
+      </c>
+      <c r="L50">
+        <v>0.04551919745883339</v>
+      </c>
+      <c r="M50">
+        <v>-0.0194735910087006</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>-0.02405200845237733</v>
+        <v>0.02508095011090812</v>
       </c>
       <c r="C51">
-        <v>0.01443459516831058</v>
+        <v>-0.003050596982581811</v>
       </c>
       <c r="D51">
-        <v>-0.00532095960340785</v>
+        <v>0.003658569137765831</v>
       </c>
       <c r="E51">
-        <v>-0.009473309528898166</v>
+        <v>0.01703702639464376</v>
       </c>
       <c r="F51">
-        <v>0.001807740552142769</v>
+        <v>0.02240767012015007</v>
       </c>
       <c r="G51">
-        <v>0.01263775892561553</v>
+        <v>-0.005801887703127249</v>
       </c>
       <c r="H51">
-        <v>0.01862788114293706</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.0137016511942654</v>
+      </c>
+      <c r="I51">
+        <v>-0.004322735785024434</v>
+      </c>
+      <c r="J51">
+        <v>0.0600673565879401</v>
+      </c>
+      <c r="K51">
+        <v>-0.0360990892365176</v>
+      </c>
+      <c r="L51">
+        <v>0.01785053494288658</v>
+      </c>
+      <c r="M51">
+        <v>0.01733197998210066</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.04624439189073028</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.02633103166120421</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.007260734941304072</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.02326839957924666</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.02089457328661777</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.04916190489625669</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.01904036154380346</v>
+      </c>
+      <c r="I52">
+        <v>0.02693802619142792</v>
+      </c>
+      <c r="J52">
+        <v>-0.03910557975270195</v>
+      </c>
+      <c r="K52">
+        <v>-0.04050414270723236</v>
+      </c>
+      <c r="L52">
+        <v>-0.0009310033056256171</v>
+      </c>
+      <c r="M52">
+        <v>-0.01545060206148093</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>-0.1713608178037915</v>
+        <v>0.1642097430280937</v>
       </c>
       <c r="C53">
-        <v>-0.001205081794696269</v>
+        <v>-0.04940141853485438</v>
       </c>
       <c r="D53">
-        <v>-0.02124244875009497</v>
+        <v>0.01010094491052962</v>
       </c>
       <c r="E53">
-        <v>-0.1080067070144097</v>
+        <v>-0.01991166149127355</v>
       </c>
       <c r="F53">
-        <v>-0.2138640675623538</v>
+        <v>0.06736974682930649</v>
       </c>
       <c r="G53">
-        <v>-0.01577085605000037</v>
+        <v>0.1326094784555412</v>
       </c>
       <c r="H53">
-        <v>-0.08230702516996549</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.1882701098299887</v>
+      </c>
+      <c r="I53">
+        <v>0.1522404129404153</v>
+      </c>
+      <c r="J53">
+        <v>-0.1091832943908972</v>
+      </c>
+      <c r="K53">
+        <v>-0.04258282099346508</v>
+      </c>
+      <c r="L53">
+        <v>-0.01296824185001012</v>
+      </c>
+      <c r="M53">
+        <v>-0.06433447603309669</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>-0.05103174192643978</v>
+        <v>0.05602924521774096</v>
       </c>
       <c r="C54">
-        <v>0.01803387111025626</v>
+        <v>-0.04416779640299916</v>
       </c>
       <c r="D54">
-        <v>-0.02281718022011563</v>
+        <v>-0.01292657465559622</v>
       </c>
       <c r="E54">
-        <v>0.05599468985111736</v>
+        <v>0.01497211480094317</v>
       </c>
       <c r="F54">
-        <v>-0.03145932814571702</v>
+        <v>-0.139564673004974</v>
       </c>
       <c r="G54">
-        <v>0.03090318821632718</v>
+        <v>-0.01920667964377709</v>
       </c>
       <c r="H54">
-        <v>-0.04450325964857654</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.01383929706622671</v>
+      </c>
+      <c r="I54">
+        <v>-0.02293507605843934</v>
+      </c>
+      <c r="J54">
+        <v>-0.0567145210357491</v>
+      </c>
+      <c r="K54">
+        <v>0.1407467839011205</v>
+      </c>
+      <c r="L54">
+        <v>0.01870024155560532</v>
+      </c>
+      <c r="M54">
+        <v>0.03257150532258115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>-0.09597123505473693</v>
+        <v>0.08716459315582484</v>
       </c>
       <c r="C55">
-        <v>0.005802118649190346</v>
+        <v>-0.03901847087913947</v>
       </c>
       <c r="D55">
-        <v>-0.01929600622929967</v>
+        <v>0.03053459858148469</v>
       </c>
       <c r="E55">
-        <v>-0.03513943188726461</v>
+        <v>0.005210025629288335</v>
       </c>
       <c r="F55">
-        <v>-0.1748521924340785</v>
+        <v>0.0007845048261130029</v>
       </c>
       <c r="G55">
-        <v>-0.02155208459839585</v>
+        <v>0.06892420058239744</v>
       </c>
       <c r="H55">
-        <v>-0.09464889453549621</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.1217493804779732</v>
+      </c>
+      <c r="I55">
+        <v>0.1060148923354964</v>
+      </c>
+      <c r="J55">
+        <v>-0.0583389386140443</v>
+      </c>
+      <c r="K55">
+        <v>0.0008894214905451743</v>
+      </c>
+      <c r="L55">
+        <v>-0.004135075957394504</v>
+      </c>
+      <c r="M55">
+        <v>0.03586644529307689</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>-0.17020662682147</v>
+        <v>0.153810536293491</v>
       </c>
       <c r="C56">
-        <v>0.005538316074727859</v>
+        <v>-0.06422317949776013</v>
       </c>
       <c r="D56">
-        <v>-0.02013010667030041</v>
+        <v>0.03833191262948608</v>
       </c>
       <c r="E56">
-        <v>-0.09560075550248394</v>
+        <v>0.01632432199655278</v>
       </c>
       <c r="F56">
-        <v>-0.2221326565022355</v>
+        <v>0.04497304175630623</v>
       </c>
       <c r="G56">
-        <v>-0.05212910042683623</v>
+        <v>0.1318602613553731</v>
       </c>
       <c r="H56">
-        <v>-0.0829542683587816</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.1654365632040141</v>
+      </c>
+      <c r="I56">
+        <v>0.1470638555128722</v>
+      </c>
+      <c r="J56">
+        <v>-0.08814859966755613</v>
+      </c>
+      <c r="K56">
+        <v>-0.03503975437896917</v>
+      </c>
+      <c r="L56">
+        <v>-0.04234750309351255</v>
+      </c>
+      <c r="M56">
+        <v>-0.01723331936139161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +3040,1829 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>-0.02446056656556722</v>
+        <v>0.04356756313482672</v>
       </c>
       <c r="C58">
-        <v>0.045541393156208</v>
+        <v>-0.03559328091509618</v>
       </c>
       <c r="D58">
-        <v>0.02301738557948876</v>
+        <v>-0.07974362645917626</v>
       </c>
       <c r="E58">
-        <v>0.3908099896345223</v>
+        <v>0.02278961427694094</v>
       </c>
       <c r="F58">
-        <v>0.3462514509040095</v>
+        <v>-0.02403930210646143</v>
       </c>
       <c r="G58">
-        <v>-0.1923392135131036</v>
+        <v>0.0653469804087482</v>
       </c>
       <c r="H58">
-        <v>-0.6484355242577344</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.1236239088001521</v>
+      </c>
+      <c r="I58">
+        <v>-0.1122767449838075</v>
+      </c>
+      <c r="J58">
+        <v>0.176415498420095</v>
+      </c>
+      <c r="K58">
+        <v>0.03774360868790736</v>
+      </c>
+      <c r="L58">
+        <v>0.3872017101303731</v>
+      </c>
+      <c r="M58">
+        <v>0.1522150684505514</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>-0.1891686350048892</v>
+        <v>0.2179116912253506</v>
       </c>
       <c r="C59">
-        <v>-0.4012287341490595</v>
+        <v>0.2979264427730258</v>
       </c>
       <c r="D59">
-        <v>-0.09202353223111792</v>
+        <v>0.04250007740513533</v>
       </c>
       <c r="E59">
-        <v>-0.01106109051489102</v>
+        <v>-0.001342156780138346</v>
       </c>
       <c r="F59">
-        <v>-0.03488473762132212</v>
+        <v>-0.02718495232248035</v>
       </c>
       <c r="G59">
-        <v>0.06646505087362733</v>
+        <v>-0.02032518477180898</v>
       </c>
       <c r="H59">
-        <v>0.001142045665968499</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.1073605988332073</v>
+      </c>
+      <c r="I59">
+        <v>0.06030154616616392</v>
+      </c>
+      <c r="J59">
+        <v>0.05243681355626604</v>
+      </c>
+      <c r="K59">
+        <v>-0.06809060782069352</v>
+      </c>
+      <c r="L59">
+        <v>-0.08769826745308737</v>
+      </c>
+      <c r="M59">
+        <v>-0.03078792729097602</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>-0.2653342379726414</v>
+        <v>0.2431092551479967</v>
       </c>
       <c r="C60">
-        <v>0.05234281732481436</v>
+        <v>-0.1151565355527299</v>
       </c>
       <c r="D60">
-        <v>-0.07628544433048698</v>
+        <v>0.07336005610283718</v>
       </c>
       <c r="E60">
-        <v>-0.01544581298543907</v>
+        <v>0.04843549113313923</v>
       </c>
       <c r="F60">
-        <v>0.06394689732426938</v>
+        <v>0.1358482938223316</v>
       </c>
       <c r="G60">
-        <v>-0.05490419494795638</v>
+        <v>-0.03765164421513922</v>
       </c>
       <c r="H60">
-        <v>0.1606528621208887</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.05609014115953858</v>
+      </c>
+      <c r="I60">
+        <v>-0.06690459631044693</v>
+      </c>
+      <c r="J60">
+        <v>-0.08918889512457323</v>
+      </c>
+      <c r="K60">
+        <v>-0.2479156170199964</v>
+      </c>
+      <c r="L60">
+        <v>0.02753271262587939</v>
+      </c>
+      <c r="M60">
+        <v>-0.07748004422279807</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>-0.0893096530882619</v>
+        <v>0.1034163636140111</v>
       </c>
       <c r="C61">
-        <v>0.04129161048092383</v>
+        <v>-0.05851742131084977</v>
       </c>
       <c r="D61">
-        <v>-0.007530375265802313</v>
+        <v>0.05129369159637009</v>
       </c>
       <c r="E61">
-        <v>-0.006095304006272095</v>
+        <v>0.0005290742670421376</v>
       </c>
       <c r="F61">
-        <v>-0.01203692868759227</v>
+        <v>-0.1310385386801723</v>
       </c>
       <c r="G61">
-        <v>0.04913434413980214</v>
+        <v>0.1058618627161725</v>
       </c>
       <c r="H61">
-        <v>-0.01382224353640094</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.01003309199576549</v>
+      </c>
+      <c r="I61">
+        <v>0.01746844630549862</v>
+      </c>
+      <c r="J61">
+        <v>0.112344574318806</v>
+      </c>
+      <c r="K61">
+        <v>0.01066270042689207</v>
+      </c>
+      <c r="L61">
+        <v>0.03953543205713986</v>
+      </c>
+      <c r="M61">
+        <v>0.01059283487147197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>-0.1567173751712148</v>
+        <v>0.1450162795279411</v>
       </c>
       <c r="C62">
-        <v>0.01973028570549515</v>
+        <v>-0.06511230933246093</v>
       </c>
       <c r="D62">
-        <v>0.02173551504356331</v>
+        <v>0.03338936665936047</v>
       </c>
       <c r="E62">
-        <v>-0.1639086258593879</v>
+        <v>-0.01770570651333312</v>
       </c>
       <c r="F62">
-        <v>-0.2064345313673919</v>
+        <v>0.05585595858708822</v>
       </c>
       <c r="G62">
-        <v>0.01842076367152538</v>
+        <v>0.08858816628719147</v>
       </c>
       <c r="H62">
-        <v>-0.07489010023166788</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.1320175891495268</v>
+      </c>
+      <c r="I62">
+        <v>0.1687831899379696</v>
+      </c>
+      <c r="J62">
+        <v>-0.1356345683094483</v>
+      </c>
+      <c r="K62">
+        <v>0.005398522458560281</v>
+      </c>
+      <c r="L62">
+        <v>-0.04581878311603835</v>
+      </c>
+      <c r="M62">
+        <v>0.03668785782492283</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>-0.03803808687202015</v>
+        <v>0.04358545130479095</v>
       </c>
       <c r="C63">
-        <v>0.02492542324026805</v>
+        <v>-0.02679827330874419</v>
       </c>
       <c r="D63">
-        <v>0.005474411151687114</v>
+        <v>0.002246507740186279</v>
       </c>
       <c r="E63">
-        <v>0.004366844543675327</v>
+        <v>-0.01804720545006939</v>
       </c>
       <c r="F63">
-        <v>-0.01691137237892713</v>
+        <v>-0.0700471448957531</v>
       </c>
       <c r="G63">
-        <v>0.005717432951070955</v>
+        <v>0.008765174604843736</v>
       </c>
       <c r="H63">
-        <v>-0.04308537690423824</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.01300469381549111</v>
+      </c>
+      <c r="I63">
+        <v>-0.006954263664222895</v>
+      </c>
+      <c r="J63">
+        <v>0.005001675697004278</v>
+      </c>
+      <c r="K63">
+        <v>0.03269534503651673</v>
+      </c>
+      <c r="L63">
+        <v>0.05094053776394618</v>
+      </c>
+      <c r="M63">
+        <v>0.0177123278847478</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>-0.1075090264593761</v>
+        <v>0.1001685857571111</v>
       </c>
       <c r="C64">
-        <v>0.02270975961738203</v>
+        <v>-0.04675467806812224</v>
       </c>
       <c r="D64">
-        <v>-0.03868827718525551</v>
+        <v>0.002780159406219469</v>
       </c>
       <c r="E64">
-        <v>0.0384359753508296</v>
+        <v>0.0346153260665885</v>
       </c>
       <c r="F64">
-        <v>0.02440023417636562</v>
+        <v>-0.0753881136739009</v>
       </c>
       <c r="G64">
-        <v>0.07651064556944828</v>
+        <v>0.04252693380269758</v>
       </c>
       <c r="H64">
-        <v>0.03668660505660557</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.06693073726202216</v>
+      </c>
+      <c r="I64">
+        <v>-0.06460106705347535</v>
+      </c>
+      <c r="J64">
+        <v>0.02882984904864396</v>
+      </c>
+      <c r="K64">
+        <v>-0.01891924368619731</v>
+      </c>
+      <c r="L64">
+        <v>-0.01190091848671624</v>
+      </c>
+      <c r="M64">
+        <v>-0.0587225402738738</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>-0.1308039044288659</v>
+        <v>0.1242393109845396</v>
       </c>
       <c r="C65">
-        <v>0.04206673847338679</v>
+        <v>-0.04712245903363572</v>
       </c>
       <c r="D65">
-        <v>-0.0298433422017217</v>
+        <v>0.002386747782446089</v>
       </c>
       <c r="E65">
-        <v>0.09837974421943685</v>
+        <v>-0.03702859373586578</v>
       </c>
       <c r="F65">
-        <v>0.1678169525904327</v>
+        <v>0.01505764540863841</v>
       </c>
       <c r="G65">
-        <v>-0.2934185079501723</v>
+        <v>-0.1028796975409959</v>
       </c>
       <c r="H65">
-        <v>-0.0673287234515156</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.0105376141472616</v>
+      </c>
+      <c r="I65">
+        <v>-0.3529111377339031</v>
+      </c>
+      <c r="J65">
+        <v>-0.5154108736016594</v>
+      </c>
+      <c r="K65">
+        <v>-0.1242062245371201</v>
+      </c>
+      <c r="L65">
+        <v>0.331482511037522</v>
+      </c>
+      <c r="M65">
+        <v>-0.03832582757516477</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>-0.1647293624698827</v>
+        <v>0.1353595657869051</v>
       </c>
       <c r="C66">
-        <v>0.0913639999417436</v>
+        <v>-0.1167933636032793</v>
       </c>
       <c r="D66">
-        <v>0.009147024062784483</v>
+        <v>0.1039909729070168</v>
       </c>
       <c r="E66">
-        <v>-0.01702607338994462</v>
+        <v>-0.03937807343697231</v>
       </c>
       <c r="F66">
-        <v>-0.01472335942072691</v>
+        <v>-0.1398440418621176</v>
       </c>
       <c r="G66">
-        <v>0.2470067133871225</v>
+        <v>0.1498207458297602</v>
       </c>
       <c r="H66">
-        <v>-0.09193747760316766</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.08900409885691275</v>
+      </c>
+      <c r="I66">
+        <v>0.03286592833867683</v>
+      </c>
+      <c r="J66">
+        <v>0.2142622856067622</v>
+      </c>
+      <c r="K66">
+        <v>-0.1342212336790211</v>
+      </c>
+      <c r="L66">
+        <v>0.02139126466547286</v>
+      </c>
+      <c r="M66">
+        <v>-0.08573067967731511</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>-0.09168803801282269</v>
+        <v>0.07565608222254044</v>
       </c>
       <c r="C67">
-        <v>0.05381398250057366</v>
+        <v>-0.04898015461834454</v>
       </c>
       <c r="D67">
-        <v>-0.0223978285252751</v>
+        <v>-0.01608686083007325</v>
       </c>
       <c r="E67">
-        <v>0.0008019414355360362</v>
+        <v>0.02361984464237258</v>
       </c>
       <c r="F67">
-        <v>-0.03030804067307021</v>
+        <v>0.04665612763378583</v>
       </c>
       <c r="G67">
-        <v>0.0375402935204412</v>
+        <v>0.04979149076810291</v>
       </c>
       <c r="H67">
-        <v>0.04475781807479798</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.05355571331371931</v>
+      </c>
+      <c r="I67">
+        <v>0.0009131525975274627</v>
+      </c>
+      <c r="J67">
+        <v>0.02875529690948429</v>
+      </c>
+      <c r="K67">
+        <v>-0.001986472909003163</v>
+      </c>
+      <c r="L67">
+        <v>-0.1348365542938041</v>
+      </c>
+      <c r="M67">
+        <v>-0.08683061802110141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>-0.06717726812721453</v>
+        <v>0.1181697763694275</v>
       </c>
       <c r="C68">
-        <v>-0.2918234396715714</v>
+        <v>0.2711062698896903</v>
       </c>
       <c r="D68">
-        <v>-0.03402770925100474</v>
+        <v>0.001951149547223991</v>
       </c>
       <c r="E68">
-        <v>0.0236644845034697</v>
+        <v>-0.01762664900608191</v>
       </c>
       <c r="F68">
-        <v>-0.0213099166528457</v>
+        <v>-0.04346686354415237</v>
       </c>
       <c r="G68">
-        <v>-0.03430069938538638</v>
+        <v>0.01791653528390205</v>
       </c>
       <c r="H68">
-        <v>-0.03736460560521847</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.01640245064707033</v>
+      </c>
+      <c r="I68">
+        <v>-0.01439173977841264</v>
+      </c>
+      <c r="J68">
+        <v>-0.03686567546492081</v>
+      </c>
+      <c r="K68">
+        <v>-0.001868575640086854</v>
+      </c>
+      <c r="L68">
+        <v>0.04281873097576596</v>
+      </c>
+      <c r="M68">
+        <v>0.001464728682757577</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>-0.03351146322782599</v>
+        <v>0.04128245394862905</v>
       </c>
       <c r="C69">
-        <v>0.0199735798679363</v>
+        <v>-0.009442187707388881</v>
       </c>
       <c r="D69">
-        <v>-0.006458386091093702</v>
+        <v>-0.005285802022359527</v>
       </c>
       <c r="E69">
-        <v>0.007081080616851048</v>
+        <v>-0.006561485196062644</v>
       </c>
       <c r="F69">
-        <v>-0.02768334704403596</v>
+        <v>-0.02075894762438836</v>
       </c>
       <c r="G69">
-        <v>0.03215332738707354</v>
+        <v>0.03863416477232835</v>
       </c>
       <c r="H69">
-        <v>-0.02063045668430687</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.01735090357888902</v>
+      </c>
+      <c r="I69">
+        <v>-0.01816526953480697</v>
+      </c>
+      <c r="J69">
+        <v>0.004711452392240752</v>
+      </c>
+      <c r="K69">
+        <v>0.02287163813091299</v>
+      </c>
+      <c r="L69">
+        <v>0.004312485419440437</v>
+      </c>
+      <c r="M69">
+        <v>0.04029915688916491</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>-0.0638020131552767</v>
+        <v>0.05304615743446783</v>
       </c>
       <c r="C70">
-        <v>0.01553648279746522</v>
+        <v>-0.01853824093952139</v>
       </c>
       <c r="D70">
-        <v>-0.03749758687578392</v>
+        <v>0.03308947143327495</v>
       </c>
       <c r="E70">
-        <v>-0.007654849699355515</v>
+        <v>0.01435223126926271</v>
       </c>
       <c r="F70">
-        <v>0.08244751260128654</v>
+        <v>-0.0329393817680253</v>
       </c>
       <c r="G70">
-        <v>-0.03806808230697431</v>
+        <v>-0.001320636736639393</v>
       </c>
       <c r="H70">
-        <v>0.07056833096141178</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.01563512530249307</v>
+      </c>
+      <c r="I70">
+        <v>-0.09665384309069297</v>
+      </c>
+      <c r="J70">
+        <v>-0.06929467355249443</v>
+      </c>
+      <c r="K70">
+        <v>0.3183126365365982</v>
+      </c>
+      <c r="L70">
+        <v>-0.1342245124097063</v>
+      </c>
+      <c r="M70">
+        <v>-0.1540441468614681</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>-0.07666965103557982</v>
+        <v>0.1331940576703945</v>
       </c>
       <c r="C71">
-        <v>-0.2880848529382476</v>
+        <v>0.2853095892277199</v>
       </c>
       <c r="D71">
-        <v>-0.06414470301727229</v>
+        <v>0.009195076536480957</v>
       </c>
       <c r="E71">
-        <v>0.009049268407242616</v>
+        <v>-0.0002593810872584888</v>
       </c>
       <c r="F71">
-        <v>0.008607089790674755</v>
+        <v>-0.03429678474266717</v>
       </c>
       <c r="G71">
-        <v>-0.014951240306807</v>
+        <v>0.03655670085869</v>
       </c>
       <c r="H71">
-        <v>-0.01861699768598743</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.002785342853152407</v>
+      </c>
+      <c r="I71">
+        <v>-0.01973957787705736</v>
+      </c>
+      <c r="J71">
+        <v>-0.002756643342364295</v>
+      </c>
+      <c r="K71">
+        <v>-0.01335715499566234</v>
+      </c>
+      <c r="L71">
+        <v>0.02936372417148823</v>
+      </c>
+      <c r="M71">
+        <v>0.00218158233868862</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>-0.1721529740840215</v>
+        <v>0.1498157800580746</v>
       </c>
       <c r="C72">
-        <v>-0.01646542991407243</v>
+        <v>-0.03086005155593907</v>
       </c>
       <c r="D72">
-        <v>0.2371851454227337</v>
+        <v>-0.02035590337035252</v>
       </c>
       <c r="E72">
-        <v>-0.02162058927274848</v>
+        <v>-0.1419522944271395</v>
       </c>
       <c r="F72">
-        <v>-0.03616817303086155</v>
+        <v>-0.005239861355377125</v>
       </c>
       <c r="G72">
-        <v>0.0522029790626018</v>
+        <v>0.03523235735601677</v>
       </c>
       <c r="H72">
-        <v>-0.005290666556806488</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.02050996897403389</v>
+      </c>
+      <c r="I72">
+        <v>0.01678074997792997</v>
+      </c>
+      <c r="J72">
+        <v>-0.106418931197935</v>
+      </c>
+      <c r="K72">
+        <v>-0.1072581854362168</v>
+      </c>
+      <c r="L72">
+        <v>-0.007846211522823877</v>
+      </c>
+      <c r="M72">
+        <v>0.008960295015950324</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>-0.2912652660583844</v>
+        <v>0.2413374390474522</v>
       </c>
       <c r="C73">
-        <v>0.184144814695214</v>
+        <v>-0.1318057008760501</v>
       </c>
       <c r="D73">
-        <v>-0.08918329619381976</v>
+        <v>0.1634266572016681</v>
       </c>
       <c r="E73">
-        <v>-0.07763624980414242</v>
+        <v>0.1194195476294046</v>
       </c>
       <c r="F73">
-        <v>0.2824714528563024</v>
+        <v>0.4713810844384071</v>
       </c>
       <c r="G73">
-        <v>-0.1547540427616195</v>
+        <v>-0.005217484990910404</v>
       </c>
       <c r="H73">
-        <v>0.04110015340689499</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.2003500864141616</v>
+      </c>
+      <c r="I73">
+        <v>-0.1714797831857889</v>
+      </c>
+      <c r="J73">
+        <v>0.2521695450550943</v>
+      </c>
+      <c r="K73">
+        <v>-0.2013345801612941</v>
+      </c>
+      <c r="L73">
+        <v>0.06229049644196018</v>
+      </c>
+      <c r="M73">
+        <v>-0.01481666230989285</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>-0.09763401487747707</v>
+        <v>0.1028698969659772</v>
       </c>
       <c r="C74">
-        <v>0.03768801940068408</v>
+        <v>-0.07263312533335857</v>
       </c>
       <c r="D74">
-        <v>-0.006855323912313063</v>
+        <v>0.01079239036777779</v>
       </c>
       <c r="E74">
-        <v>-0.03643132212673988</v>
+        <v>-0.009180806452973627</v>
       </c>
       <c r="F74">
-        <v>-0.09817472947184291</v>
+        <v>0.04423764227289673</v>
       </c>
       <c r="G74">
-        <v>-0.05202471661952051</v>
+        <v>0.1215117280621734</v>
       </c>
       <c r="H74">
-        <v>-0.0659425763526305</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.0771096826574509</v>
+      </c>
+      <c r="I74">
+        <v>0.05696578603975561</v>
+      </c>
+      <c r="J74">
+        <v>-0.03301652349203569</v>
+      </c>
+      <c r="K74">
+        <v>-0.01240570435666452</v>
+      </c>
+      <c r="L74">
+        <v>-0.002228418120552331</v>
+      </c>
+      <c r="M74">
+        <v>0.01798716626870904</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>-0.09721118821512585</v>
+        <v>0.0994682433887397</v>
       </c>
       <c r="C75">
-        <v>0.01982009189286819</v>
+        <v>-0.05480225809105448</v>
       </c>
       <c r="D75">
-        <v>0.002188565128531869</v>
+        <v>0.005759540705479084</v>
       </c>
       <c r="E75">
-        <v>-0.0447122506832815</v>
+        <v>-0.004781337467718109</v>
       </c>
       <c r="F75">
-        <v>-0.1232053009512387</v>
+        <v>0.02981123169238512</v>
       </c>
       <c r="G75">
-        <v>-0.04815661600660915</v>
+        <v>0.04044072876891877</v>
       </c>
       <c r="H75">
-        <v>-0.03208991694666827</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.1098255412017328</v>
+      </c>
+      <c r="I75">
+        <v>0.07652970699809795</v>
+      </c>
+      <c r="J75">
+        <v>-0.05207555901464156</v>
+      </c>
+      <c r="K75">
+        <v>-0.01372113290322619</v>
+      </c>
+      <c r="L75">
+        <v>-0.01371134606439709</v>
+      </c>
+      <c r="M75">
+        <v>0.05113747762752584</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>-0.1390278397993257</v>
+        <v>0.07468878193719337</v>
       </c>
       <c r="C76">
-        <v>0.03550865062393111</v>
+        <v>-0.04815771605735047</v>
       </c>
       <c r="D76">
-        <v>-0.01841398989044922</v>
+        <v>0.007882383200068779</v>
       </c>
       <c r="E76">
-        <v>-0.04031985026571013</v>
+        <v>0.01766484430233551</v>
       </c>
       <c r="F76">
-        <v>-0.2221607906587952</v>
+        <v>0.06518669896121029</v>
       </c>
       <c r="G76">
-        <v>-0.0738771508275901</v>
+        <v>0.06818374458803414</v>
       </c>
       <c r="H76">
-        <v>-0.05250352983019469</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.1617616495826068</v>
+      </c>
+      <c r="I76">
+        <v>0.10721769799526</v>
+      </c>
+      <c r="J76">
+        <v>-0.01100690809984399</v>
+      </c>
+      <c r="K76">
+        <v>0.03142300425062265</v>
+      </c>
+      <c r="L76">
+        <v>0.0001109110531173663</v>
+      </c>
+      <c r="M76">
+        <v>-0.03011298439172605</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>-0.07759592201810792</v>
+        <v>0.07017233333501763</v>
       </c>
       <c r="C77">
-        <v>0.03435889207781071</v>
+        <v>-0.03272563432559988</v>
       </c>
       <c r="D77">
-        <v>-0.0279403467008375</v>
+        <v>0.02183278662730101</v>
       </c>
       <c r="E77">
-        <v>0.1081725610744912</v>
+        <v>0.02584978396530344</v>
       </c>
       <c r="F77">
-        <v>0.2198324293551916</v>
+        <v>-0.2645023576075469</v>
       </c>
       <c r="G77">
-        <v>0.6108310773226221</v>
+        <v>-0.07394902807108648</v>
       </c>
       <c r="H77">
-        <v>0.2129990521304424</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.07948117996298663</v>
+      </c>
+      <c r="I77">
+        <v>-0.2853720127094936</v>
+      </c>
+      <c r="J77">
+        <v>-0.009416049765002581</v>
+      </c>
+      <c r="K77">
+        <v>-0.3412977441022171</v>
+      </c>
+      <c r="L77">
+        <v>-0.5881583780137943</v>
+      </c>
+      <c r="M77">
+        <v>0.01211272393588534</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>-0.1828312897689022</v>
+        <v>0.1523014132003409</v>
       </c>
       <c r="C78">
-        <v>0.08376927899872054</v>
+        <v>-0.1179397818030036</v>
       </c>
       <c r="D78">
-        <v>-0.04408801582605818</v>
+        <v>-0.1897093251512501</v>
       </c>
       <c r="E78">
-        <v>0.2119958338785791</v>
+        <v>0.1216189026940044</v>
       </c>
       <c r="F78">
-        <v>-0.03012790794870338</v>
+        <v>-0.215805453925301</v>
       </c>
       <c r="G78">
-        <v>0.09547426771757085</v>
+        <v>-0.694394281768916</v>
       </c>
       <c r="H78">
-        <v>0.1028354490175713</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.4059734553700415</v>
+      </c>
+      <c r="I78">
+        <v>0.1248906308443193</v>
+      </c>
+      <c r="J78">
+        <v>0.2335462634210544</v>
+      </c>
+      <c r="K78">
+        <v>-0.1728018431560007</v>
+      </c>
+      <c r="L78">
+        <v>0.1297385632893696</v>
+      </c>
+      <c r="M78">
+        <v>-0.1253289821617929</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>-0.1359372900007622</v>
+        <v>0.1359061986186964</v>
       </c>
       <c r="C79">
-        <v>0.02504475009867577</v>
+        <v>-0.06974662804127754</v>
       </c>
       <c r="D79">
-        <v>-8.936482205214485e-05</v>
+        <v>0.003707915938786678</v>
       </c>
       <c r="E79">
-        <v>-0.06521464942056417</v>
+        <v>-0.001850112341482801</v>
       </c>
       <c r="F79">
-        <v>-0.1635496821581506</v>
+        <v>0.005495467859318768</v>
       </c>
       <c r="G79">
-        <v>-0.009459908373519711</v>
+        <v>0.1063825570310197</v>
       </c>
       <c r="H79">
-        <v>-0.06636434694560729</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.1115896339526682</v>
+      </c>
+      <c r="I79">
+        <v>0.1169120440637477</v>
+      </c>
+      <c r="J79">
+        <v>-0.08801110234915531</v>
+      </c>
+      <c r="K79">
+        <v>-0.0220022669526257</v>
+      </c>
+      <c r="L79">
+        <v>-0.01870145310901457</v>
+      </c>
+      <c r="M79">
+        <v>0.04164487796821711</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>-0.03679148518919622</v>
+        <v>0.06097629535880002</v>
       </c>
       <c r="C80">
-        <v>0.02012499668442819</v>
+        <v>-0.0339919080048596</v>
       </c>
       <c r="D80">
-        <v>-0.01369329430285242</v>
+        <v>0.06586946214659853</v>
       </c>
       <c r="E80">
-        <v>-0.03491137197998364</v>
+        <v>-0.01021547478988177</v>
       </c>
       <c r="F80">
-        <v>0.01600149952802547</v>
+        <v>-0.05291784812695105</v>
       </c>
       <c r="G80">
-        <v>-0.009652804964435753</v>
+        <v>-0.01370207321011048</v>
       </c>
       <c r="H80">
-        <v>-0.00891347074009155</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.04861064192013551</v>
+      </c>
+      <c r="I80">
+        <v>-0.07113715498471673</v>
+      </c>
+      <c r="J80">
+        <v>-0.01764583382365833</v>
+      </c>
+      <c r="K80">
+        <v>0.1623615705518466</v>
+      </c>
+      <c r="L80">
+        <v>0.08986137327156372</v>
+      </c>
+      <c r="M80">
+        <v>0.0331951304721731</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>-0.1048533039196398</v>
+        <v>0.1238932772710655</v>
       </c>
       <c r="C81">
-        <v>0.0228351690630532</v>
+        <v>-0.06105298192207888</v>
       </c>
       <c r="D81">
-        <v>-0.01279272820661544</v>
+        <v>0.005750029336193604</v>
       </c>
       <c r="E81">
-        <v>-0.07379672989955913</v>
+        <v>0.006590070125139207</v>
       </c>
       <c r="F81">
-        <v>-0.1254618660121131</v>
+        <v>-0.000912378095302536</v>
       </c>
       <c r="G81">
-        <v>-0.01316361667632169</v>
+        <v>0.07233138169327469</v>
       </c>
       <c r="H81">
-        <v>0.02393193298079926</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.07147136759397328</v>
+      </c>
+      <c r="I81">
+        <v>0.1176453784088711</v>
+      </c>
+      <c r="J81">
+        <v>-0.04842210448120922</v>
+      </c>
+      <c r="K81">
+        <v>-0.01090027809961341</v>
+      </c>
+      <c r="L81">
+        <v>-0.01380424893032906</v>
+      </c>
+      <c r="M81">
+        <v>0.05272100452450154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>-0.117039226513821</v>
+        <v>0.1304697299071167</v>
       </c>
       <c r="C82">
-        <v>0.0260902186457187</v>
+        <v>-0.05387094982841855</v>
       </c>
       <c r="D82">
-        <v>-0.06453386517751958</v>
+        <v>0.02729385332131744</v>
       </c>
       <c r="E82">
-        <v>-0.09531152402465755</v>
+        <v>0.003878561597733291</v>
       </c>
       <c r="F82">
-        <v>-0.2355277301469236</v>
+        <v>0.03081609207996977</v>
       </c>
       <c r="G82">
-        <v>-0.01055396901371342</v>
+        <v>0.1657289427916953</v>
       </c>
       <c r="H82">
-        <v>-0.1150192038618607</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.1342543093095171</v>
+      </c>
+      <c r="I82">
+        <v>0.1797327511660376</v>
+      </c>
+      <c r="J82">
+        <v>-0.03799688325342734</v>
+      </c>
+      <c r="K82">
+        <v>0.06333646010606178</v>
+      </c>
+      <c r="L82">
+        <v>-0.06926942258612639</v>
+      </c>
+      <c r="M82">
+        <v>0.06109134492350588</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>-0.07944971917005011</v>
+        <v>0.08803261540904433</v>
       </c>
       <c r="C83">
-        <v>0.06093958503364953</v>
+        <v>-0.1099062812406673</v>
       </c>
       <c r="D83">
-        <v>-0.04562179840111374</v>
+        <v>0.02152502361789452</v>
       </c>
       <c r="E83">
-        <v>-0.001761318636603363</v>
+        <v>0.001608297149184406</v>
       </c>
       <c r="F83">
-        <v>0.06698816399223281</v>
+        <v>-0.08802982068697784</v>
       </c>
       <c r="G83">
-        <v>0.04848325137594274</v>
+        <v>0.03282393416018931</v>
       </c>
       <c r="H83">
-        <v>-0.06697132290444872</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.07690094969129195</v>
+      </c>
+      <c r="I83">
+        <v>-0.120244167256503</v>
+      </c>
+      <c r="J83">
+        <v>0.02945360110837759</v>
+      </c>
+      <c r="K83">
+        <v>0.1445670650047762</v>
+      </c>
+      <c r="L83">
+        <v>-0.1309013343222847</v>
+      </c>
+      <c r="M83">
+        <v>0.04811775747935859</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>-0.06207549852741016</v>
+        <v>0.06006903011166036</v>
       </c>
       <c r="C84">
-        <v>0.04756292385995481</v>
+        <v>0.02723873110980134</v>
       </c>
       <c r="D84">
-        <v>0.05387431217504896</v>
+        <v>0.008887148210679711</v>
       </c>
       <c r="E84">
-        <v>0.01636723563436294</v>
+        <v>0.01939216223055638</v>
       </c>
       <c r="F84">
-        <v>-0.07345137657272049</v>
+        <v>0.01258133638764971</v>
       </c>
       <c r="G84">
-        <v>-0.1333961564496497</v>
+        <v>-0.1079733189273947</v>
       </c>
       <c r="H84">
-        <v>-0.02427814442850069</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.2325740414944395</v>
+      </c>
+      <c r="I84">
+        <v>0.1959804727243231</v>
+      </c>
+      <c r="J84">
+        <v>0.1548314224385339</v>
+      </c>
+      <c r="K84">
+        <v>0.1701413043954428</v>
+      </c>
+      <c r="L84">
+        <v>0.1769562435913076</v>
+      </c>
+      <c r="M84">
+        <v>-0.1954640258338047</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>-0.09829319489657186</v>
+        <v>0.1125743394883634</v>
       </c>
       <c r="C85">
-        <v>0.03577363948769583</v>
+        <v>-0.05054247720673911</v>
       </c>
       <c r="D85">
-        <v>-0.02806975781227828</v>
+        <v>0.01893293295931808</v>
       </c>
       <c r="E85">
-        <v>-0.05675681615050494</v>
+        <v>0.03320710494735057</v>
       </c>
       <c r="F85">
-        <v>-0.1806290690664007</v>
+        <v>0.005822797195945299</v>
       </c>
       <c r="G85">
-        <v>0.01600145412126285</v>
+        <v>0.1061949838196539</v>
       </c>
       <c r="H85">
-        <v>-0.08326261456865229</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.1087268226602982</v>
+      </c>
+      <c r="I85">
+        <v>0.1170823841150835</v>
+      </c>
+      <c r="J85">
+        <v>-0.09311324876696282</v>
+      </c>
+      <c r="K85">
+        <v>-0.04261375113377132</v>
+      </c>
+      <c r="L85">
+        <v>-0.03052600697486008</v>
+      </c>
+      <c r="M85">
+        <v>0.048535389449788</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>-0.05380554634689202</v>
+        <v>0.08047174112786241</v>
       </c>
       <c r="C86">
-        <v>0.04642293896507265</v>
+        <v>-0.0361292820935351</v>
       </c>
       <c r="D86">
-        <v>-0.03595038722545468</v>
+        <v>0.004742871397162648</v>
       </c>
       <c r="E86">
-        <v>0.03165240835069625</v>
+        <v>0.1422129979107761</v>
       </c>
       <c r="F86">
-        <v>0.01896995730714043</v>
+        <v>-0.03133442778390357</v>
       </c>
       <c r="G86">
-        <v>0.03112460139095509</v>
+        <v>-0.252146331843567</v>
       </c>
       <c r="H86">
-        <v>0.05039197994921783</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.5242112178876758</v>
+      </c>
+      <c r="I86">
+        <v>0.5089937113835725</v>
+      </c>
+      <c r="J86">
+        <v>-0.3534896362809989</v>
+      </c>
+      <c r="K86">
+        <v>0.003846346994589652</v>
+      </c>
+      <c r="L86">
+        <v>-0.06859026481941076</v>
+      </c>
+      <c r="M86">
+        <v>-0.1664913573275528</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>-0.09464253257919351</v>
+        <v>0.1153361530714747</v>
       </c>
       <c r="C87">
-        <v>0.04905418546793625</v>
+        <v>-0.1002531018122742</v>
       </c>
       <c r="D87">
-        <v>-0.006321222138694196</v>
+        <v>-0.02206157227702417</v>
       </c>
       <c r="E87">
-        <v>0.06482277400955859</v>
+        <v>-0.003937448594026243</v>
       </c>
       <c r="F87">
-        <v>0.0120707758316411</v>
+        <v>-0.1363698447886655</v>
       </c>
       <c r="G87">
-        <v>0.1302835023610105</v>
+        <v>-0.03469645083847948</v>
       </c>
       <c r="H87">
-        <v>-0.02236105897715257</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.09730053837550763</v>
+      </c>
+      <c r="I87">
+        <v>-0.09040207206818693</v>
+      </c>
+      <c r="J87">
+        <v>-0.07431656417618984</v>
+      </c>
+      <c r="K87">
+        <v>0.02884709790039842</v>
+      </c>
+      <c r="L87">
+        <v>-0.2718882175600889</v>
+      </c>
+      <c r="M87">
+        <v>0.1104439933255544</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>-0.05904573119936952</v>
+        <v>0.05817338045694045</v>
       </c>
       <c r="C88">
-        <v>0.03400254901068878</v>
+        <v>-0.05054298535988299</v>
       </c>
       <c r="D88">
-        <v>-0.0203627895741069</v>
+        <v>0.03375351622438617</v>
       </c>
       <c r="E88">
-        <v>0.003094382567637795</v>
+        <v>0.0009337873330568069</v>
       </c>
       <c r="F88">
-        <v>0.014208057290763</v>
+        <v>-0.03488450624515124</v>
       </c>
       <c r="G88">
-        <v>0.04311681142355381</v>
+        <v>0.05129058250588893</v>
       </c>
       <c r="H88">
-        <v>-0.01557060230165752</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.007448666904184585</v>
+      </c>
+      <c r="I88">
+        <v>-0.01546594667989748</v>
+      </c>
+      <c r="J88">
+        <v>0.03737789063133629</v>
+      </c>
+      <c r="K88">
+        <v>0.03156390953341825</v>
+      </c>
+      <c r="L88">
+        <v>0.05631145665974016</v>
+      </c>
+      <c r="M88">
+        <v>0.03781681729891678</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>-0.1269298925982227</v>
+        <v>0.1978743809948278</v>
       </c>
       <c r="C89">
-        <v>-0.3530029717829138</v>
+        <v>0.3681773169245244</v>
       </c>
       <c r="D89">
-        <v>-0.105758541389725</v>
+        <v>-0.03976847709538139</v>
       </c>
       <c r="E89">
-        <v>0.07893895672629349</v>
+        <v>0.05506750539357859</v>
       </c>
       <c r="F89">
-        <v>0.07082476072429357</v>
+        <v>-0.03272667392132517</v>
       </c>
       <c r="G89">
-        <v>0.01621701280464303</v>
+        <v>-0.02364025344622462</v>
       </c>
       <c r="H89">
-        <v>-0.03863339512591898</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.01074999798971797</v>
+      </c>
+      <c r="I89">
+        <v>-0.0354787066050538</v>
+      </c>
+      <c r="J89">
+        <v>0.04803884360633459</v>
+      </c>
+      <c r="K89">
+        <v>0.04864901433480556</v>
+      </c>
+      <c r="L89">
+        <v>-0.002850186549625698</v>
+      </c>
+      <c r="M89">
+        <v>0.04439878768942166</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>-0.09944242480648909</v>
+        <v>0.1491451839156796</v>
       </c>
       <c r="C90">
-        <v>-0.2763305420108529</v>
+        <v>0.2702339126806218</v>
       </c>
       <c r="D90">
-        <v>-0.04724780807198401</v>
+        <v>0.005795834335984491</v>
       </c>
       <c r="E90">
-        <v>0.05554110150161507</v>
+        <v>0.01174530665594104</v>
       </c>
       <c r="F90">
-        <v>0.04953077809046686</v>
+        <v>-0.03130792510681278</v>
       </c>
       <c r="G90">
-        <v>0.09376597915322502</v>
+        <v>0.02358845530607747</v>
       </c>
       <c r="H90">
-        <v>-0.01497274583973322</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.05428064365256101</v>
+      </c>
+      <c r="I90">
+        <v>-0.02141346162242177</v>
+      </c>
+      <c r="J90">
+        <v>0.03752838008972267</v>
+      </c>
+      <c r="K90">
+        <v>-0.03542475744636425</v>
+      </c>
+      <c r="L90">
+        <v>0.01049998027237535</v>
+      </c>
+      <c r="M90">
+        <v>-0.02357912919415641</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>-0.0820531034898084</v>
+        <v>0.08215862701237668</v>
       </c>
       <c r="C91">
-        <v>0.02358667531280729</v>
+        <v>-0.05128502688536634</v>
       </c>
       <c r="D91">
-        <v>-0.01524268130636062</v>
+        <v>0.0006393172273801511</v>
       </c>
       <c r="E91">
-        <v>-0.01255997744378105</v>
+        <v>0.005571066623612436</v>
       </c>
       <c r="F91">
-        <v>-0.08814967597354678</v>
+        <v>0.02061870744943878</v>
       </c>
       <c r="G91">
-        <v>-0.06377913528631865</v>
+        <v>0.05781482169429439</v>
       </c>
       <c r="H91">
-        <v>-0.02506594513680387</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.06606492617999958</v>
+      </c>
+      <c r="I91">
+        <v>0.06842887557656276</v>
+      </c>
+      <c r="J91">
+        <v>-0.01890961289208449</v>
+      </c>
+      <c r="K91">
+        <v>-0.01059494099694623</v>
+      </c>
+      <c r="L91">
+        <v>0.008805008746961386</v>
+      </c>
+      <c r="M91">
+        <v>-0.0007688680871610059</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>-0.1040016992291934</v>
+        <v>0.1649084537736555</v>
       </c>
       <c r="C92">
-        <v>-0.3266462292860201</v>
+        <v>0.3182637804018704</v>
       </c>
       <c r="D92">
-        <v>-0.07835982248087099</v>
+        <v>-0.03288732786133291</v>
       </c>
       <c r="E92">
-        <v>0.04831650489658397</v>
+        <v>0.03522947373957944</v>
       </c>
       <c r="F92">
-        <v>0.006814790054182901</v>
+        <v>-0.05104080993477374</v>
       </c>
       <c r="G92">
-        <v>-0.09164186456226363</v>
+        <v>0.01600778870212949</v>
       </c>
       <c r="H92">
-        <v>-0.02151621311071364</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.03628739509732158</v>
+      </c>
+      <c r="I92">
+        <v>0.004073977186177673</v>
+      </c>
+      <c r="J92">
+        <v>0.03731613656172313</v>
+      </c>
+      <c r="K92">
+        <v>0.03637052982866486</v>
+      </c>
+      <c r="L92">
+        <v>0.0444393815077025</v>
+      </c>
+      <c r="M92">
+        <v>0.05431841621417449</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>-0.1104019120980196</v>
+        <v>0.1559263179356788</v>
       </c>
       <c r="C93">
-        <v>-0.2723151245971704</v>
+        <v>0.2963244256133651</v>
       </c>
       <c r="D93">
-        <v>-0.05351266503577793</v>
+        <v>0.03189991327931199</v>
       </c>
       <c r="E93">
-        <v>0.02545978022983124</v>
+        <v>-0.0006783527510880907</v>
       </c>
       <c r="F93">
-        <v>0.02802382095582563</v>
+        <v>-0.01208002894911905</v>
       </c>
       <c r="G93">
-        <v>0.01496284188354777</v>
+        <v>0.01178473986037944</v>
       </c>
       <c r="H93">
-        <v>0.0289133876063636</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.04970054426254173</v>
+      </c>
+      <c r="I93">
+        <v>0.001653601965933487</v>
+      </c>
+      <c r="J93">
+        <v>-0.02059734060618344</v>
+      </c>
+      <c r="K93">
+        <v>0.02100976685890065</v>
+      </c>
+      <c r="L93">
+        <v>0.008488797460034621</v>
+      </c>
+      <c r="M93">
+        <v>-0.02105374817936868</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>-0.09776858659154108</v>
+        <v>0.1155807465491022</v>
       </c>
       <c r="C94">
-        <v>0.0506386018685625</v>
+        <v>-0.06663662261145011</v>
       </c>
       <c r="D94">
-        <v>-0.005191146987671143</v>
+        <v>-0.007014632224757024</v>
       </c>
       <c r="E94">
-        <v>-0.01503199783249073</v>
+        <v>0.03321217708077818</v>
       </c>
       <c r="F94">
-        <v>-0.1558414002000854</v>
+        <v>0.04313666733678636</v>
       </c>
       <c r="G94">
-        <v>-0.06737644501960212</v>
+        <v>0.09388222610665074</v>
       </c>
       <c r="H94">
-        <v>-0.07021597215911181</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.09926053368910355</v>
+      </c>
+      <c r="I94">
+        <v>0.08305599712759938</v>
+      </c>
+      <c r="J94">
+        <v>-0.0281760519850122</v>
+      </c>
+      <c r="K94">
+        <v>-0.01708238640563373</v>
+      </c>
+      <c r="L94">
+        <v>0.04693118472221309</v>
+      </c>
+      <c r="M94">
+        <v>0.02446202955585209</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>-0.1212247218159375</v>
+        <v>0.1194323839394834</v>
       </c>
       <c r="C95">
-        <v>0.07642041907819148</v>
+        <v>-0.07267081816157514</v>
       </c>
       <c r="D95">
-        <v>-0.05838970988147133</v>
+        <v>-0.008917195219822189</v>
       </c>
       <c r="E95">
-        <v>0.04795495630728072</v>
+        <v>0.07649772428686362</v>
       </c>
       <c r="F95">
-        <v>0.05372879096117715</v>
+        <v>-0.08101592931801738</v>
       </c>
       <c r="G95">
-        <v>0.05626871650173917</v>
+        <v>-0.126465323599134</v>
       </c>
       <c r="H95">
-        <v>-0.1309270942305998</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.2107426099004242</v>
+      </c>
+      <c r="I95">
+        <v>-0.03537775028943533</v>
+      </c>
+      <c r="J95">
+        <v>-0.07446166038079646</v>
+      </c>
+      <c r="K95">
+        <v>0.1195156916660159</v>
+      </c>
+      <c r="L95">
+        <v>0.008226478339893059</v>
+      </c>
+      <c r="M95">
+        <v>0.5776558019830187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.0018589403240931</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.00558892364626716</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.001319702265609463</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.002975061641866287</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.005828977094636945</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>-0.01755391846895097</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.01507496104604045</v>
+      </c>
+      <c r="I96">
+        <v>-0.005927448868786024</v>
+      </c>
+      <c r="J96">
+        <v>0.002578874557113299</v>
+      </c>
+      <c r="K96">
+        <v>-0.008638640177145822</v>
+      </c>
+      <c r="L96">
+        <v>-0.006060869302993343</v>
+      </c>
+      <c r="M96">
+        <v>-0.01042163561185578</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>-0.2208029176970895</v>
+        <v>0.1636144663589915</v>
       </c>
       <c r="C97">
-        <v>-0.131873553079537</v>
+        <v>-0.04486762837759449</v>
       </c>
       <c r="D97">
-        <v>0.9019589627533219</v>
+        <v>-0.2337950577552583</v>
       </c>
       <c r="E97">
-        <v>-0.03649051247134264</v>
+        <v>-0.9074719827833183</v>
       </c>
       <c r="F97">
-        <v>0.1015180499918679</v>
+        <v>0.05024071180219478</v>
       </c>
       <c r="G97">
-        <v>0.004410194574394528</v>
+        <v>-0.1079470943002798</v>
       </c>
       <c r="H97">
-        <v>0.02119135001078469</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.1214333137386261</v>
+      </c>
+      <c r="I97">
+        <v>0.06761814999779382</v>
+      </c>
+      <c r="J97">
+        <v>0.06343680057400558</v>
+      </c>
+      <c r="K97">
+        <v>-0.002216273941614074</v>
+      </c>
+      <c r="L97">
+        <v>-0.02690428688163291</v>
+      </c>
+      <c r="M97">
+        <v>0.01649927401594009</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>-0.2966827847607402</v>
+        <v>0.254327909243663</v>
       </c>
       <c r="C98">
-        <v>0.09778068312506033</v>
+        <v>-0.1033098551097576</v>
       </c>
       <c r="D98">
-        <v>-0.09443573772647322</v>
+        <v>-0.009476670464155101</v>
       </c>
       <c r="E98">
-        <v>-0.1923776110211508</v>
+        <v>0.039463637515365</v>
       </c>
       <c r="F98">
-        <v>0.2604202310830482</v>
+        <v>0.3608557263930192</v>
       </c>
       <c r="G98">
-        <v>-0.31409036248866</v>
+        <v>-0.2330497488744359</v>
       </c>
       <c r="H98">
-        <v>0.3125362493499261</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.07106377969677194</v>
+      </c>
+      <c r="I98">
+        <v>-0.2129908526310653</v>
+      </c>
+      <c r="J98">
+        <v>0.1041674058457119</v>
+      </c>
+      <c r="K98">
+        <v>0.5291628473094036</v>
+      </c>
+      <c r="L98">
+        <v>-0.2186567986380065</v>
+      </c>
+      <c r="M98">
+        <v>-0.08039086029021836</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>-0.07305224702289839</v>
+        <v>0.06497476138677553</v>
       </c>
       <c r="C99">
-        <v>0.04851213060228241</v>
+        <v>-0.03993397956767861</v>
       </c>
       <c r="D99">
-        <v>-0.02289670136481652</v>
+        <v>0.004082760266266829</v>
       </c>
       <c r="E99">
-        <v>-0.002739215568750029</v>
+        <v>0.04269236193776867</v>
       </c>
       <c r="F99">
-        <v>-0.02056104316333338</v>
+        <v>0.008664443821910523</v>
       </c>
       <c r="G99">
-        <v>0.04189564681330508</v>
+        <v>0.02247806070233594</v>
       </c>
       <c r="H99">
-        <v>-0.01007517471582751</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.03547302468823482</v>
+      </c>
+      <c r="I99">
+        <v>0.004413598095766369</v>
+      </c>
+      <c r="J99">
+        <v>0.02823141332995903</v>
+      </c>
+      <c r="K99">
+        <v>-0.02797204780070523</v>
+      </c>
+      <c r="L99">
+        <v>-0.01569490235854948</v>
+      </c>
+      <c r="M99">
+        <v>0.02540430530902454</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.0007297227942937804</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.009019555596290736</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.0116669232357277</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.06390352594521514</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.04063180507113648</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.02236740223644662</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>0.01239917014061191</v>
+      </c>
+      <c r="I100">
+        <v>-0.03524890219293678</v>
+      </c>
+      <c r="J100">
+        <v>-0.003227473305518752</v>
+      </c>
+      <c r="K100">
+        <v>0.05792224757219282</v>
+      </c>
+      <c r="L100">
+        <v>-0.01404090428109271</v>
+      </c>
+      <c r="M100">
+        <v>0.02792086548180215</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>-0.05389236951061058</v>
+        <v>0.03848975259390171</v>
       </c>
       <c r="C101">
-        <v>0.006583785802597117</v>
+        <v>-0.02259603540582074</v>
       </c>
       <c r="D101">
-        <v>-0.007302544010488266</v>
+        <v>0.009296308284865119</v>
       </c>
       <c r="E101">
-        <v>0.03607241741563402</v>
+        <v>0.006922355079490494</v>
       </c>
       <c r="F101">
-        <v>-0.02486365700137993</v>
+        <v>-0.06720029266388408</v>
       </c>
       <c r="G101">
-        <v>-0.001945114079479021</v>
+        <v>0.03499761831116723</v>
       </c>
       <c r="H101">
-        <v>0.004977753539574616</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.00673914004114436</v>
+      </c>
+      <c r="I101">
+        <v>-0.008273845666403197</v>
+      </c>
+      <c r="J101">
+        <v>-0.0268315393512514</v>
+      </c>
+      <c r="K101">
+        <v>0.09207294710722205</v>
+      </c>
+      <c r="L101">
+        <v>0.03088398007463826</v>
+      </c>
+      <c r="M101">
+        <v>-0.004827604846862606</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
